--- a/Resources/prices.xlsx
+++ b/Resources/prices.xlsx
@@ -543,13 +543,13 @@
         <v>112.3426895141602</v>
       </c>
       <c r="C2">
-        <v>6.798795223236084</v>
+        <v>6.798794746398926</v>
       </c>
       <c r="D2">
         <v>6.411041736602783</v>
       </c>
       <c r="E2">
-        <v>148.9344177246094</v>
+        <v>148.9344329833984</v>
       </c>
       <c r="F2">
         <v>103.4359283447266</v>
@@ -561,7 +561,7 @@
         <v>811.8582763671875</v>
       </c>
       <c r="I2">
-        <v>36.42457580566406</v>
+        <v>36.4245719909668</v>
       </c>
       <c r="J2">
         <v>63.95999908447266</v>
@@ -570,7 +570,7 @@
         <v>5.048798561096191</v>
       </c>
       <c r="L2">
-        <v>138.6172027587891</v>
+        <v>138.6171722412109</v>
       </c>
       <c r="M2">
         <v>189.8300933837891</v>
@@ -582,7 +582,7 @@
         <v>80.05999755859375</v>
       </c>
       <c r="P2">
-        <v>36.52040100097656</v>
+        <v>36.52040481567383</v>
       </c>
       <c r="Q2">
         <v>240.3572692871094</v>
@@ -603,7 +603,7 @@
         <v>24.3481330871582</v>
       </c>
       <c r="W2">
-        <v>74.14845275878906</v>
+        <v>74.1484375</v>
       </c>
       <c r="X2">
         <v>24.85000038146973</v>
@@ -623,22 +623,22 @@
         <v>6.413116455078125</v>
       </c>
       <c r="D3">
-        <v>6.345871925354004</v>
+        <v>6.345871448516846</v>
       </c>
       <c r="E3">
-        <v>153.8843383789062</v>
+        <v>153.8842926025391</v>
       </c>
       <c r="F3">
         <v>116.5049514770508</v>
       </c>
       <c r="G3">
-        <v>126.7180938720703</v>
+        <v>126.718132019043</v>
       </c>
       <c r="H3">
-        <v>820.306884765625</v>
+        <v>820.3069458007812</v>
       </c>
       <c r="I3">
-        <v>36.44376754760742</v>
+        <v>36.44376373291016</v>
       </c>
       <c r="J3">
         <v>62.40999984741211</v>
@@ -647,19 +647,19 @@
         <v>4.983229637145996</v>
       </c>
       <c r="L3">
-        <v>141.0893707275391</v>
+        <v>141.08935546875</v>
       </c>
       <c r="M3">
-        <v>194.9062652587891</v>
+        <v>194.90625</v>
       </c>
       <c r="N3">
-        <v>4866.33251953125</v>
+        <v>4866.33203125</v>
       </c>
       <c r="O3">
         <v>79.31999969482422</v>
       </c>
       <c r="P3">
-        <v>38.37796783447266</v>
+        <v>38.37797546386719</v>
       </c>
       <c r="Q3">
         <v>248.1907043457031</v>
@@ -680,7 +680,7 @@
         <v>23.49898147583008</v>
       </c>
       <c r="W3">
-        <v>73.48088836669922</v>
+        <v>73.48087310791016</v>
       </c>
       <c r="X3">
         <v>26.77000045776367</v>
@@ -694,25 +694,25 @@
         <v>44179</v>
       </c>
       <c r="B4">
-        <v>109.3490982055664</v>
+        <v>109.3490905761719</v>
       </c>
       <c r="C4">
         <v>6.38151741027832</v>
       </c>
       <c r="D4">
-        <v>6.321433067321777</v>
+        <v>6.321432590484619</v>
       </c>
       <c r="E4">
-        <v>151.68896484375</v>
+        <v>151.6889953613281</v>
       </c>
       <c r="F4">
         <v>113.1097946166992</v>
       </c>
       <c r="G4">
-        <v>129.0666656494141</v>
+        <v>129.066650390625</v>
       </c>
       <c r="H4">
-        <v>844.6705322265625</v>
+        <v>844.6705932617188</v>
       </c>
       <c r="I4">
         <v>37.55684661865234</v>
@@ -724,10 +724,10 @@
         <v>4.983229637145996</v>
       </c>
       <c r="L4">
-        <v>142.5283813476562</v>
+        <v>142.5283966064453</v>
       </c>
       <c r="M4">
-        <v>204.1439514160156</v>
+        <v>204.1439361572266</v>
       </c>
       <c r="N4">
         <v>5071.77294921875</v>
@@ -736,7 +736,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="P4">
-        <v>37.4404296875</v>
+        <v>37.44042205810547</v>
       </c>
       <c r="Q4">
         <v>264.3533630371094</v>
@@ -757,13 +757,13 @@
         <v>25.02399063110352</v>
       </c>
       <c r="W4">
-        <v>72.09666442871094</v>
+        <v>72.09667205810547</v>
       </c>
       <c r="X4">
         <v>31.6299991607666</v>
       </c>
       <c r="Y4">
-        <v>16.62590789794922</v>
+        <v>16.62590980529785</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -771,25 +771,25 @@
         <v>44186</v>
       </c>
       <c r="B5">
-        <v>114.3445358276367</v>
+        <v>114.3445434570312</v>
       </c>
       <c r="C5">
-        <v>6.414737224578857</v>
+        <v>6.414737701416016</v>
       </c>
       <c r="D5">
-        <v>6.378457546234131</v>
+        <v>6.378456592559814</v>
       </c>
       <c r="E5">
-        <v>150.6763610839844</v>
+        <v>150.6763763427734</v>
       </c>
       <c r="F5">
         <v>112.3191375732422</v>
       </c>
       <c r="G5">
-        <v>127.8413467407227</v>
+        <v>127.8413162231445</v>
       </c>
       <c r="H5">
-        <v>836.4182739257812</v>
+        <v>836.4183959960938</v>
       </c>
       <c r="I5">
         <v>36.94273376464844</v>
@@ -798,13 +798,13 @@
         <v>62.68999862670898</v>
       </c>
       <c r="K5">
-        <v>4.889560222625732</v>
+        <v>4.889559745788574</v>
       </c>
       <c r="L5">
-        <v>140.6465759277344</v>
+        <v>140.6465911865234</v>
       </c>
       <c r="M5">
-        <v>194.8147888183594</v>
+        <v>194.8148040771484</v>
       </c>
       <c r="N5">
         <v>5045.6318359375</v>
@@ -813,13 +813,13 @@
         <v>84.91000366210938</v>
       </c>
       <c r="P5">
-        <v>36.4503059387207</v>
+        <v>36.45030212402344</v>
       </c>
       <c r="Q5">
         <v>275.8555908203125</v>
       </c>
       <c r="R5">
-        <v>173.0670013427734</v>
+        <v>173.0670166015625</v>
       </c>
       <c r="S5">
         <v>29.8700008392334</v>
@@ -828,13 +828,13 @@
         <v>3.700000047683716</v>
       </c>
       <c r="U5">
-        <v>107.6848983764648</v>
+        <v>107.6849060058594</v>
       </c>
       <c r="V5">
-        <v>24.97199821472168</v>
+        <v>24.97200012207031</v>
       </c>
       <c r="W5">
-        <v>71.96905517578125</v>
+        <v>71.96903228759766</v>
       </c>
       <c r="X5">
         <v>35.58000183105469</v>
@@ -848,13 +848,13 @@
         <v>44193</v>
       </c>
       <c r="B6">
-        <v>116.6861572265625</v>
+        <v>116.686164855957</v>
       </c>
       <c r="C6">
-        <v>6.191108703613281</v>
+        <v>6.191108226776123</v>
       </c>
       <c r="D6">
-        <v>6.305140495300293</v>
+        <v>6.305140972137451</v>
       </c>
       <c r="E6">
         <v>150.5953521728516</v>
@@ -866,10 +866,10 @@
         <v>129.1594848632812</v>
       </c>
       <c r="H6">
-        <v>864.1221313476562</v>
+        <v>864.1220703125</v>
       </c>
       <c r="I6">
-        <v>37.24979019165039</v>
+        <v>37.24979400634766</v>
       </c>
       <c r="J6">
         <v>62.65999984741211</v>
@@ -890,10 +890,10 @@
         <v>81.47000122070312</v>
       </c>
       <c r="P6">
-        <v>36.11735534667969</v>
+        <v>36.11735153198242</v>
       </c>
       <c r="Q6">
-        <v>285.4738159179688</v>
+        <v>285.4738464355469</v>
       </c>
       <c r="R6">
         <v>170.304443359375</v>
@@ -911,13 +911,13 @@
         <v>24.93733978271484</v>
       </c>
       <c r="W6">
-        <v>71.86104583740234</v>
+        <v>71.86106109619141</v>
       </c>
       <c r="X6">
         <v>33.90999984741211</v>
       </c>
       <c r="Y6">
-        <v>16.37300682067871</v>
+        <v>16.37301063537598</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -925,13 +925,13 @@
         <v>44200</v>
       </c>
       <c r="B7">
-        <v>124.9047927856445</v>
+        <v>124.9048004150391</v>
       </c>
       <c r="C7">
-        <v>6.719390869140625</v>
+        <v>6.719390392303467</v>
       </c>
       <c r="D7">
-        <v>6.541380405426025</v>
+        <v>6.541379451751709</v>
       </c>
       <c r="E7">
         <v>152.0940246582031</v>
@@ -940,7 +940,7 @@
         <v>121.8534774780273</v>
       </c>
       <c r="G7">
-        <v>128.8345794677734</v>
+        <v>128.8345642089844</v>
       </c>
       <c r="H7">
         <v>871.784912109375</v>
@@ -955,19 +955,19 @@
         <v>4.908293724060059</v>
       </c>
       <c r="L7">
-        <v>147.6295471191406</v>
+        <v>147.6295623779297</v>
       </c>
       <c r="M7">
-        <v>194.6547088623047</v>
+        <v>194.6547241210938</v>
       </c>
       <c r="N7">
-        <v>5177.9853515625</v>
+        <v>5177.98583984375</v>
       </c>
       <c r="O7">
         <v>77.70999908447266</v>
       </c>
       <c r="P7">
-        <v>39.83247375488281</v>
+        <v>39.83247756958008</v>
       </c>
       <c r="Q7">
         <v>309.3707580566406</v>
@@ -988,13 +988,13 @@
         <v>26.56632614135742</v>
       </c>
       <c r="W7">
-        <v>79.74417114257812</v>
+        <v>79.74417877197266</v>
       </c>
       <c r="X7">
         <v>53.77999877929688</v>
       </c>
       <c r="Y7">
-        <v>17.42207908630371</v>
+        <v>17.42208099365234</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1002,49 +1002,49 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>128.2275085449219</v>
+        <v>128.2275238037109</v>
       </c>
       <c r="C8">
         <v>6.3572096824646</v>
       </c>
       <c r="D8">
-        <v>6.769474029541016</v>
+        <v>6.769474506378174</v>
       </c>
       <c r="E8">
-        <v>170.1184692382812</v>
+        <v>170.1184844970703</v>
       </c>
       <c r="F8">
         <v>127.7136077880859</v>
       </c>
       <c r="G8">
-        <v>125.1122283935547</v>
+        <v>125.1122207641602</v>
       </c>
       <c r="H8">
         <v>865.4974365234375</v>
       </c>
       <c r="I8">
-        <v>35.94480133056641</v>
+        <v>35.94479751586914</v>
       </c>
       <c r="J8">
         <v>75.19000244140625</v>
       </c>
       <c r="K8">
-        <v>4.805257320404053</v>
+        <v>4.805257797241211</v>
       </c>
       <c r="L8">
-        <v>147.8694000244141</v>
+        <v>147.869384765625</v>
       </c>
       <c r="M8">
-        <v>202.4290466308594</v>
+        <v>202.4290161132812</v>
       </c>
       <c r="N8">
-        <v>5056.30224609375</v>
+        <v>5056.30126953125</v>
       </c>
       <c r="O8">
         <v>76.75</v>
       </c>
       <c r="P8">
-        <v>41.96165466308594</v>
+        <v>41.96166610717773</v>
       </c>
       <c r="Q8">
         <v>270.3027954101562</v>
@@ -1065,7 +1065,7 @@
         <v>25.76916122436523</v>
       </c>
       <c r="W8">
-        <v>80.40190887451172</v>
+        <v>80.40192413330078</v>
       </c>
       <c r="X8">
         <v>60.13999938964844</v>
@@ -1079,13 +1079,13 @@
         <v>44214</v>
       </c>
       <c r="B9">
-        <v>123.7417984008789</v>
+        <v>123.7418212890625</v>
       </c>
       <c r="C9">
-        <v>6.247015953063965</v>
+        <v>6.247015476226807</v>
       </c>
       <c r="D9">
-        <v>6.761327266693115</v>
+        <v>6.761326789855957</v>
       </c>
       <c r="E9">
         <v>169.3083953857422</v>
@@ -1094,10 +1094,10 @@
         <v>123.8998641967773</v>
       </c>
       <c r="G9">
-        <v>120.6750946044922</v>
+        <v>120.6750869750977</v>
       </c>
       <c r="H9">
-        <v>860.1924438476562</v>
+        <v>860.1925048828125</v>
       </c>
       <c r="I9">
         <v>36.21347808837891</v>
@@ -1106,13 +1106,13 @@
         <v>73.33999633789062</v>
       </c>
       <c r="K9">
-        <v>5.011330127716064</v>
+        <v>5.011330604553223</v>
       </c>
       <c r="L9">
-        <v>150.8673706054688</v>
+        <v>150.8673553466797</v>
       </c>
       <c r="M9">
-        <v>203.2750396728516</v>
+        <v>203.2750701904297</v>
       </c>
       <c r="N9">
         <v>4885.68310546875</v>
@@ -1127,7 +1127,7 @@
         <v>290.1342468261719</v>
       </c>
       <c r="R9">
-        <v>140.7570343017578</v>
+        <v>140.7570190429688</v>
       </c>
       <c r="S9">
         <v>47.20999908447266</v>
@@ -1139,16 +1139,16 @@
         <v>122.2269668579102</v>
       </c>
       <c r="V9">
-        <v>28.10866546630859</v>
+        <v>28.10866355895996</v>
       </c>
       <c r="W9">
-        <v>78.99808502197266</v>
+        <v>78.99807739257812</v>
       </c>
       <c r="X9">
         <v>66.87000274658203</v>
       </c>
       <c r="Y9">
-        <v>15.93277359008789</v>
+        <v>15.93277168273926</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1156,16 +1156,16 @@
         <v>44221</v>
       </c>
       <c r="B10">
-        <v>119.0063400268555</v>
+        <v>119.0063323974609</v>
       </c>
       <c r="C10">
-        <v>5.975582599639893</v>
+        <v>5.975583076477051</v>
       </c>
       <c r="D10">
-        <v>6.492503643035889</v>
+        <v>6.49250316619873</v>
       </c>
       <c r="E10">
-        <v>172.5487365722656</v>
+        <v>172.5487670898438</v>
       </c>
       <c r="F10">
         <v>122.7836532592773</v>
@@ -1174,16 +1174,16 @@
         <v>119.7313537597656</v>
       </c>
       <c r="H10">
-        <v>827.7731323242188</v>
+        <v>827.773193359375</v>
       </c>
       <c r="I10">
-        <v>39.3032341003418</v>
+        <v>39.30323028564453</v>
       </c>
       <c r="J10">
         <v>70.01999664306641</v>
       </c>
       <c r="K10">
-        <v>5.245505332946777</v>
+        <v>5.245504856109619</v>
       </c>
       <c r="L10">
         <v>150.4799499511719</v>
@@ -1192,19 +1192,19 @@
         <v>194.5404052734375</v>
       </c>
       <c r="N10">
-        <v>4464.51806640625</v>
+        <v>4464.5185546875</v>
       </c>
       <c r="O10">
         <v>68.08999633789062</v>
       </c>
       <c r="P10">
-        <v>39.28923034667969</v>
+        <v>39.28922653198242</v>
       </c>
       <c r="Q10">
-        <v>264.5516662597656</v>
+        <v>264.5516357421875</v>
       </c>
       <c r="R10">
-        <v>142.7350463867188</v>
+        <v>142.7350616455078</v>
       </c>
       <c r="S10">
         <v>54.0099983215332</v>
@@ -1216,7 +1216,7 @@
         <v>117.75390625</v>
       </c>
       <c r="V10">
-        <v>26.04643821716309</v>
+        <v>26.04643630981445</v>
       </c>
       <c r="W10">
         <v>72.85258483886719</v>
@@ -1225,7 +1225,7 @@
         <v>63.16999816894531</v>
       </c>
       <c r="Y10">
-        <v>15.53937244415283</v>
+        <v>15.5393705368042</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1233,7 +1233,7 @@
         <v>44228</v>
       </c>
       <c r="B11">
-        <v>127.6171188354492</v>
+        <v>127.6171340942383</v>
       </c>
       <c r="C11">
         <v>6.292389869689941</v>
@@ -1242,7 +1242,7 @@
         <v>6.964981555938721</v>
       </c>
       <c r="E11">
-        <v>168.4983215332031</v>
+        <v>168.4983062744141</v>
       </c>
       <c r="F11">
         <v>149.6193389892578</v>
@@ -1251,7 +1251,7 @@
         <v>121.0014266967773</v>
       </c>
       <c r="H11">
-        <v>884.7525634765625</v>
+        <v>884.7525024414062</v>
       </c>
       <c r="I11">
         <v>36.94273376464844</v>
@@ -1266,16 +1266,16 @@
         <v>151.6975708007812</v>
       </c>
       <c r="M11">
-        <v>201.4000854492188</v>
+        <v>201.4000701904297</v>
       </c>
       <c r="N11">
-        <v>4656.76806640625</v>
+        <v>4656.767578125</v>
       </c>
       <c r="O11">
         <v>75.25</v>
       </c>
       <c r="P11">
-        <v>43.76665115356445</v>
+        <v>43.76665496826172</v>
       </c>
       <c r="Q11">
         <v>264.9483032226562</v>
@@ -1290,13 +1290,13 @@
         <v>11.55000019073486</v>
       </c>
       <c r="U11">
-        <v>122.6871566772461</v>
+        <v>122.6871490478516</v>
       </c>
       <c r="V11">
         <v>30.76009559631348</v>
       </c>
       <c r="W11">
-        <v>79.11589813232422</v>
+        <v>79.11589050292969</v>
       </c>
       <c r="X11">
         <v>65.76999664306641</v>
@@ -1310,28 +1310,28 @@
         <v>44235</v>
       </c>
       <c r="B12">
-        <v>130.6415405273438</v>
+        <v>130.6415252685547</v>
       </c>
       <c r="C12">
         <v>6.764764308929443</v>
       </c>
       <c r="D12">
-        <v>6.647280216217041</v>
+        <v>6.647280693054199</v>
       </c>
       <c r="E12">
-        <v>173.3588104248047</v>
+        <v>173.3588409423828</v>
       </c>
       <c r="F12">
         <v>146.1311645507812</v>
       </c>
       <c r="G12">
-        <v>119.1803741455078</v>
+        <v>119.1803665161133</v>
       </c>
       <c r="H12">
-        <v>908.1337890625</v>
+        <v>908.1338500976562</v>
       </c>
       <c r="I12">
-        <v>30.70565032958984</v>
+        <v>30.70564842224121</v>
       </c>
       <c r="J12">
         <v>81.70999908447266</v>
@@ -1346,7 +1346,7 @@
         <v>210.3633880615234</v>
       </c>
       <c r="N12">
-        <v>4648.13525390625</v>
+        <v>4648.134765625</v>
       </c>
       <c r="O12">
         <v>74.62999725341797</v>
@@ -1355,7 +1355,7 @@
         <v>44.26609420776367</v>
       </c>
       <c r="Q12">
-        <v>258.0072937011719</v>
+        <v>258.0072631835938</v>
       </c>
       <c r="R12">
         <v>144.2383575439453</v>
@@ -1370,16 +1370,16 @@
         <v>126.6081390380859</v>
       </c>
       <c r="V12">
-        <v>31.79987525939941</v>
+        <v>31.79987907409668</v>
       </c>
       <c r="W12">
-        <v>79.05698394775391</v>
+        <v>79.05697631835938</v>
       </c>
       <c r="X12">
         <v>63.18999862670898</v>
       </c>
       <c r="Y12">
-        <v>15.92340850830078</v>
+        <v>15.92340660095215</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1390,10 +1390,10 @@
         <v>136.903076171875</v>
       </c>
       <c r="C13">
-        <v>7.251724243164062</v>
+        <v>7.251723766326904</v>
       </c>
       <c r="D13">
-        <v>6.850935935974121</v>
+        <v>6.850935459136963</v>
       </c>
       <c r="E13">
         <v>177.4092712402344</v>
@@ -1402,7 +1402,7 @@
         <v>148.8286743164062</v>
       </c>
       <c r="G13">
-        <v>118.7134246826172</v>
+        <v>118.7134323120117</v>
       </c>
       <c r="H13">
         <v>946.6439819335938</v>
@@ -1417,10 +1417,10 @@
         <v>5.451578617095947</v>
       </c>
       <c r="L13">
-        <v>150.3415832519531</v>
+        <v>150.3415679931641</v>
       </c>
       <c r="M13">
-        <v>208.191162109375</v>
+        <v>208.1911468505859</v>
       </c>
       <c r="N13">
         <v>4540.90478515625</v>
@@ -1444,19 +1444,19 @@
         <v>12.17000007629395</v>
       </c>
       <c r="U13">
-        <v>125.1533050537109</v>
+        <v>125.1532974243164</v>
       </c>
       <c r="V13">
         <v>31.43594932556152</v>
       </c>
       <c r="W13">
-        <v>72.71221923828125</v>
+        <v>72.71222686767578</v>
       </c>
       <c r="X13">
         <v>55.88999938964844</v>
       </c>
       <c r="Y13">
-        <v>16.18567657470703</v>
+        <v>16.1856746673584</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1464,10 +1464,10 @@
         <v>44249</v>
       </c>
       <c r="B14">
-        <v>136.1169128417969</v>
+        <v>136.1169281005859</v>
       </c>
       <c r="C14">
-        <v>7.424025535583496</v>
+        <v>7.424025058746338</v>
       </c>
       <c r="D14">
         <v>7.374660015106201</v>
@@ -1479,28 +1479,28 @@
         <v>146.2241668701172</v>
       </c>
       <c r="G14">
-        <v>115.36083984375</v>
+        <v>115.3608322143555</v>
       </c>
       <c r="H14">
-        <v>906.9549560546875</v>
+        <v>906.954833984375</v>
       </c>
       <c r="I14">
-        <v>33.23886108398438</v>
+        <v>33.23886489868164</v>
       </c>
       <c r="J14">
         <v>76.72000122070312</v>
       </c>
       <c r="K14">
-        <v>5.741954326629639</v>
+        <v>5.741955280303955</v>
       </c>
       <c r="L14">
         <v>146.1720886230469</v>
       </c>
       <c r="M14">
-        <v>200.2796630859375</v>
+        <v>200.2796783447266</v>
       </c>
       <c r="N14">
-        <v>4293.65673828125</v>
+        <v>4293.65625</v>
       </c>
       <c r="O14">
         <v>67.36000061035156</v>
@@ -1509,7 +1509,7 @@
         <v>48.44852447509766</v>
       </c>
       <c r="Q14">
-        <v>228.9541931152344</v>
+        <v>228.9541778564453</v>
       </c>
       <c r="R14">
         <v>151.1219329833984</v>
@@ -1521,19 +1521,19 @@
         <v>9.710000038146973</v>
       </c>
       <c r="U14">
-        <v>120.9021835327148</v>
+        <v>120.9021759033203</v>
       </c>
       <c r="V14">
         <v>31.86919212341309</v>
       </c>
       <c r="W14">
-        <v>71.20804595947266</v>
+        <v>71.20803070068359</v>
       </c>
       <c r="X14">
         <v>48.38000106811523</v>
       </c>
       <c r="Y14">
-        <v>15.62367153167725</v>
+        <v>15.62367057800293</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1550,16 +1550,16 @@
         <v>7.601186275482178</v>
       </c>
       <c r="E15">
-        <v>176.3471374511719</v>
+        <v>176.3471069335938</v>
       </c>
       <c r="F15">
         <v>148.4566192626953</v>
       </c>
       <c r="G15">
-        <v>117.6488265991211</v>
+        <v>117.6488342285156</v>
       </c>
       <c r="H15">
-        <v>874.3390502929688</v>
+        <v>874.339111328125</v>
       </c>
       <c r="I15">
         <v>30.8207950592041</v>
@@ -1568,7 +1568,7 @@
         <v>75.30000305175781</v>
       </c>
       <c r="K15">
-        <v>5.62018346786499</v>
+        <v>5.620183944702148</v>
       </c>
       <c r="L15">
         <v>144.8930206298828</v>
@@ -1577,19 +1577,19 @@
         <v>195.3178253173828</v>
       </c>
       <c r="N15">
-        <v>4357.62646484375</v>
+        <v>4357.6259765625</v>
       </c>
       <c r="O15">
         <v>65.01999664306641</v>
       </c>
       <c r="P15">
-        <v>54.29407119750977</v>
+        <v>54.29407501220703</v>
       </c>
       <c r="Q15">
-        <v>206.7429504394531</v>
+        <v>206.7429656982422</v>
       </c>
       <c r="R15">
-        <v>161.8824768066406</v>
+        <v>161.8824615478516</v>
       </c>
       <c r="S15">
         <v>30.68000030517578</v>
@@ -1598,10 +1598,10 @@
         <v>6.980000019073486</v>
       </c>
       <c r="U15">
-        <v>121.9791259765625</v>
+        <v>121.979118347168</v>
       </c>
       <c r="V15">
-        <v>31.22799682617188</v>
+        <v>31.22800064086914</v>
       </c>
       <c r="W15">
         <v>73.32176971435547</v>
@@ -1618,13 +1618,13 @@
         <v>44263</v>
       </c>
       <c r="B16">
-        <v>144.4224548339844</v>
+        <v>144.4224395751953</v>
       </c>
       <c r="C16">
-        <v>8.295459747314453</v>
+        <v>8.29545783996582</v>
       </c>
       <c r="D16">
-        <v>7.458558559417725</v>
+        <v>7.458559036254883</v>
       </c>
       <c r="E16">
         <v>178.4024505615234</v>
@@ -1636,7 +1636,7 @@
         <v>119.6659774780273</v>
       </c>
       <c r="H16">
-        <v>938.9257202148438</v>
+        <v>938.92578125</v>
       </c>
       <c r="I16">
         <v>32.68232727050781</v>
@@ -1660,7 +1660,7 @@
         <v>66.48999786376953</v>
       </c>
       <c r="P16">
-        <v>55.22080612182617</v>
+        <v>55.22080993652344</v>
       </c>
       <c r="Q16">
         <v>232.6230163574219</v>
@@ -1675,13 +1675,13 @@
         <v>10.10000038146973</v>
       </c>
       <c r="U16">
-        <v>127.8929214477539</v>
+        <v>127.8929290771484</v>
       </c>
       <c r="V16">
         <v>32.51039123535156</v>
       </c>
       <c r="W16">
-        <v>76.76271057128906</v>
+        <v>76.76271820068359</v>
       </c>
       <c r="X16">
         <v>47.25</v>
@@ -1695,16 +1695,16 @@
         <v>44270</v>
       </c>
       <c r="B17">
-        <v>143.4883270263672</v>
+        <v>143.4883422851562</v>
       </c>
       <c r="C17">
         <v>8.486007690429688</v>
       </c>
       <c r="D17">
-        <v>7.122965335845947</v>
+        <v>7.122966289520264</v>
       </c>
       <c r="E17">
-        <v>179.2245788574219</v>
+        <v>179.2245941162109</v>
       </c>
       <c r="F17">
         <v>140.4570617675781</v>
@@ -1713,7 +1713,7 @@
         <v>119.5445709228516</v>
       </c>
       <c r="H17">
-        <v>932.037841796875</v>
+        <v>932.0379028320312</v>
       </c>
       <c r="I17">
         <v>31.24300003051758</v>
@@ -1725,13 +1725,13 @@
         <v>5.883614540100098</v>
       </c>
       <c r="L17">
-        <v>148.5501403808594</v>
+        <v>148.5501251220703</v>
       </c>
       <c r="M17">
-        <v>201.5372924804688</v>
+        <v>201.5372772216797</v>
       </c>
       <c r="N17">
-        <v>4146.123046875</v>
+        <v>4146.12353515625</v>
       </c>
       <c r="O17">
         <v>64.59999847412109</v>
@@ -1740,7 +1740,7 @@
         <v>50.33763885498047</v>
       </c>
       <c r="Q17">
-        <v>221.2199401855469</v>
+        <v>221.2199249267578</v>
       </c>
       <c r="R17">
         <v>145.2669525146484</v>
@@ -1752,19 +1752,19 @@
         <v>10.01000022888184</v>
       </c>
       <c r="U17">
-        <v>130.1412963867188</v>
+        <v>130.1412811279297</v>
       </c>
       <c r="V17">
         <v>31.90385246276855</v>
       </c>
       <c r="W17">
-        <v>74.37371063232422</v>
+        <v>74.37371826171875</v>
       </c>
       <c r="X17">
         <v>38.27999877929688</v>
       </c>
       <c r="Y17">
-        <v>17.62324714660645</v>
+        <v>17.62324523925781</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1775,22 +1775,22 @@
         <v>143.4420776367188</v>
       </c>
       <c r="C18">
-        <v>8.333239555358887</v>
+        <v>8.333240509033203</v>
       </c>
       <c r="D18">
-        <v>7.299152374267578</v>
+        <v>7.299151420593262</v>
       </c>
       <c r="E18">
-        <v>180.0466918945312</v>
+        <v>180.0467376708984</v>
       </c>
       <c r="F18">
         <v>135.9456939697266</v>
       </c>
       <c r="G18">
-        <v>126.4925537109375</v>
+        <v>126.4925384521484</v>
       </c>
       <c r="H18">
-        <v>928.101806640625</v>
+        <v>928.1017456054688</v>
       </c>
       <c r="I18">
         <v>31.62681770324707</v>
@@ -1799,28 +1799,28 @@
         <v>80.55000305175781</v>
       </c>
       <c r="K18">
-        <v>6.110270500183105</v>
+        <v>6.110270023345947</v>
       </c>
       <c r="L18">
-        <v>153.0890655517578</v>
+        <v>153.0890808105469</v>
       </c>
       <c r="M18">
         <v>193.6943664550781</v>
       </c>
       <c r="N18">
-        <v>4273.72412109375</v>
+        <v>4273.7236328125</v>
       </c>
       <c r="O18">
         <v>59.2400016784668</v>
       </c>
       <c r="P18">
-        <v>51.42476272583008</v>
+        <v>51.42476654052734</v>
       </c>
       <c r="Q18">
         <v>235.3994140625</v>
       </c>
       <c r="R18">
-        <v>139.5702056884766</v>
+        <v>139.5702209472656</v>
       </c>
       <c r="S18">
         <v>32.86999893188477</v>
@@ -1832,16 +1832,16 @@
         <v>129.7823181152344</v>
       </c>
       <c r="V18">
-        <v>33.18624496459961</v>
+        <v>33.18624877929688</v>
       </c>
       <c r="W18">
-        <v>77.17562103271484</v>
+        <v>77.17562866210938</v>
       </c>
       <c r="X18">
         <v>34.02999877929688</v>
       </c>
       <c r="Y18">
-        <v>18.21538734436035</v>
+        <v>18.21538543701172</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1849,16 +1849,16 @@
         <v>44284</v>
       </c>
       <c r="B19">
-        <v>142.1657409667969</v>
+        <v>142.1657562255859</v>
       </c>
       <c r="C19">
         <v>8.563213348388672</v>
       </c>
       <c r="D19">
-        <v>7.257203102111816</v>
+        <v>7.2572021484375</v>
       </c>
       <c r="E19">
-        <v>180.0466918945312</v>
+        <v>180.0467376708984</v>
       </c>
       <c r="F19">
         <v>145.4335327148438</v>
@@ -1867,16 +1867,16 @@
         <v>125.3999404907227</v>
       </c>
       <c r="H19">
-        <v>941.2872924804688</v>
+        <v>941.287353515625</v>
       </c>
       <c r="I19">
-        <v>33.23886108398438</v>
+        <v>33.23886489868164</v>
       </c>
       <c r="J19">
         <v>79.55999755859375</v>
       </c>
       <c r="K19">
-        <v>5.864726066589355</v>
+        <v>5.864727020263672</v>
       </c>
       <c r="L19">
         <v>151.1398315429688</v>
@@ -1894,7 +1894,7 @@
         <v>51.13961791992188</v>
       </c>
       <c r="Q19">
-        <v>258.2055969238281</v>
+        <v>258.20556640625</v>
       </c>
       <c r="R19">
         <v>135.8515014648438</v>
@@ -1906,19 +1906,19 @@
         <v>9.970000267028809</v>
       </c>
       <c r="U19">
-        <v>133.01318359375</v>
+        <v>133.0131683349609</v>
       </c>
       <c r="V19">
-        <v>33.0129508972168</v>
+        <v>33.01294708251953</v>
       </c>
       <c r="W19">
-        <v>77.65736389160156</v>
+        <v>77.65735626220703</v>
       </c>
       <c r="X19">
         <v>35.2599983215332</v>
       </c>
       <c r="Y19">
-        <v>18.81692886352539</v>
+        <v>18.81692695617676</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1926,34 +1926,34 @@
         <v>44291</v>
       </c>
       <c r="B20">
-        <v>144.5426940917969</v>
+        <v>144.5427093505859</v>
       </c>
       <c r="C20">
-        <v>8.57964038848877</v>
+        <v>8.579639434814453</v>
       </c>
       <c r="D20">
-        <v>7.324320793151855</v>
+        <v>7.324321269989014</v>
       </c>
       <c r="E20">
-        <v>185.0617218017578</v>
+        <v>185.0617065429688</v>
       </c>
       <c r="F20">
         <v>138.3641510009766</v>
       </c>
       <c r="G20">
-        <v>127.3517150878906</v>
+        <v>127.3517303466797</v>
       </c>
       <c r="H20">
-        <v>973.7591552734375</v>
+        <v>973.759033203125</v>
       </c>
       <c r="I20">
-        <v>31.52126312255859</v>
+        <v>31.52126502990723</v>
       </c>
       <c r="J20">
         <v>81.48999786376953</v>
       </c>
       <c r="K20">
-        <v>6.044162273406982</v>
+        <v>6.044162750244141</v>
       </c>
       <c r="L20">
         <v>149.6732788085938</v>
@@ -1962,16 +1962,16 @@
         <v>206.0137023925781</v>
       </c>
       <c r="N20">
-        <v>4617.38671875</v>
+        <v>4617.38720703125</v>
       </c>
       <c r="O20">
         <v>52.9900016784668</v>
       </c>
       <c r="P20">
-        <v>49.78515625</v>
+        <v>49.78516387939453</v>
       </c>
       <c r="Q20">
-        <v>248.8451385498047</v>
+        <v>248.8451538085938</v>
       </c>
       <c r="R20">
         <v>129.7591247558594</v>
@@ -1983,7 +1983,7 @@
         <v>8.199999809265137</v>
       </c>
       <c r="U20">
-        <v>132.6352996826172</v>
+        <v>132.6352844238281</v>
       </c>
       <c r="V20">
         <v>33.7613410949707</v>
@@ -2003,55 +2003,55 @@
         <v>44298</v>
       </c>
       <c r="B21">
-        <v>142.6215972900391</v>
+        <v>142.6216125488281</v>
       </c>
       <c r="C21">
-        <v>8.669987678527832</v>
+        <v>8.669986724853516</v>
       </c>
       <c r="D21">
-        <v>7.475339412689209</v>
+        <v>7.475338935852051</v>
       </c>
       <c r="E21">
-        <v>190.7344207763672</v>
+        <v>190.7344055175781</v>
       </c>
       <c r="F21">
         <v>124.8300552368164</v>
       </c>
       <c r="G21">
-        <v>128.1735076904297</v>
+        <v>128.1735382080078</v>
       </c>
       <c r="H21">
         <v>1010.068420410156</v>
       </c>
       <c r="I21">
-        <v>32.0394287109375</v>
+        <v>32.03942489624023</v>
       </c>
       <c r="J21">
         <v>79.04000091552734</v>
       </c>
       <c r="K21">
-        <v>6.044162273406982</v>
+        <v>6.044162750244141</v>
       </c>
       <c r="L21">
-        <v>150.5921936035156</v>
+        <v>150.5921783447266</v>
       </c>
       <c r="M21">
         <v>211.2569122314453</v>
       </c>
       <c r="N21">
-        <v>4746.345703125</v>
+        <v>4746.34521484375</v>
       </c>
       <c r="O21">
         <v>53.43999862670898</v>
       </c>
       <c r="P21">
-        <v>50.48911666870117</v>
+        <v>50.48912048339844</v>
       </c>
       <c r="Q21">
         <v>247.5781097412109</v>
       </c>
       <c r="R21">
-        <v>133.3987274169922</v>
+        <v>133.3987121582031</v>
       </c>
       <c r="S21">
         <v>27.3700008392334</v>
@@ -2060,7 +2060,7 @@
         <v>6.329999923706055</v>
       </c>
       <c r="U21">
-        <v>137.8878021240234</v>
+        <v>137.8878173828125</v>
       </c>
       <c r="V21">
         <v>34.83411407470703</v>
@@ -2072,7 +2072,7 @@
         <v>27.23999977111816</v>
       </c>
       <c r="Y21">
-        <v>19.681640625</v>
+        <v>19.68164253234863</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2080,25 +2080,25 @@
         <v>44305</v>
       </c>
       <c r="B22">
-        <v>139.7282562255859</v>
+        <v>139.7282409667969</v>
       </c>
       <c r="C22">
-        <v>8.380877494812012</v>
+        <v>8.380878448486328</v>
       </c>
       <c r="D22">
-        <v>7.651525020599365</v>
+        <v>7.651524543762207</v>
       </c>
       <c r="E22">
-        <v>195.7000885009766</v>
+        <v>195.7000732421875</v>
       </c>
       <c r="F22">
         <v>121.3883819580078</v>
       </c>
       <c r="G22">
-        <v>125.082389831543</v>
+        <v>125.0824356079102</v>
       </c>
       <c r="H22">
-        <v>1033.192138671875</v>
+        <v>1033.1923828125</v>
       </c>
       <c r="I22">
         <v>32.17375946044922</v>
@@ -2107,10 +2107,10 @@
         <v>84.15000152587891</v>
       </c>
       <c r="K22">
-        <v>6.072494506835938</v>
+        <v>6.072494983673096</v>
       </c>
       <c r="L22">
-        <v>153.6367340087891</v>
+        <v>153.63671875</v>
       </c>
       <c r="M22">
         <v>213.9137878417969</v>
@@ -2122,7 +2122,7 @@
         <v>52.88999938964844</v>
       </c>
       <c r="P22">
-        <v>49.51782989501953</v>
+        <v>49.5178337097168</v>
       </c>
       <c r="Q22">
         <v>262.3529052734375</v>
@@ -2143,13 +2143,13 @@
         <v>35.00256729125977</v>
       </c>
       <c r="W22">
-        <v>83.96904754638672</v>
+        <v>83.96906280517578</v>
       </c>
       <c r="X22">
         <v>27.97999954223633</v>
       </c>
       <c r="Y22">
-        <v>20.52755928039551</v>
+        <v>20.52755737304688</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2163,10 +2163,10 @@
         <v>8.730765342712402</v>
       </c>
       <c r="D23">
-        <v>7.567627429962158</v>
+        <v>7.567626953125</v>
       </c>
       <c r="E23">
-        <v>197.3114776611328</v>
+        <v>197.3114929199219</v>
       </c>
       <c r="F23">
         <v>129.0623626708984</v>
@@ -2175,19 +2175,19 @@
         <v>125.3939743041992</v>
       </c>
       <c r="H23">
-        <v>1027.288330078125</v>
+        <v>1027.288452148438</v>
       </c>
       <c r="I23">
-        <v>32.37527084350586</v>
+        <v>32.37526702880859</v>
       </c>
       <c r="J23">
         <v>100.120002746582</v>
       </c>
       <c r="K23">
-        <v>6.034718990325928</v>
+        <v>6.034718036651611</v>
       </c>
       <c r="L23">
-        <v>151.0470123291016</v>
+        <v>151.0469970703125</v>
       </c>
       <c r="M23">
         <v>213.0438232421875</v>
@@ -2199,7 +2199,7 @@
         <v>60.45999908447266</v>
       </c>
       <c r="P23">
-        <v>51.00595474243164</v>
+        <v>51.00595855712891</v>
       </c>
       <c r="Q23">
         <v>257.7607727050781</v>
@@ -2220,7 +2220,7 @@
         <v>33.97412490844727</v>
       </c>
       <c r="W23">
-        <v>80.68540954589844</v>
+        <v>80.68540191650391</v>
       </c>
       <c r="X23">
         <v>28.51000022888184</v>
@@ -2237,13 +2237,13 @@
         <v>150.008544921875</v>
       </c>
       <c r="C24">
-        <v>8.881890296936035</v>
+        <v>8.881891250610352</v>
       </c>
       <c r="D24">
-        <v>7.534067153930664</v>
+        <v>7.534066200256348</v>
       </c>
       <c r="E24">
-        <v>197.3114776611328</v>
+        <v>197.3114929199219</v>
       </c>
       <c r="F24">
         <v>134.224853515625</v>
@@ -2252,7 +2252,7 @@
         <v>127.019905090332</v>
       </c>
       <c r="H24">
-        <v>1055.82421875</v>
+        <v>1055.823974609375</v>
       </c>
       <c r="I24">
         <v>29.93800926208496</v>
@@ -2261,28 +2261,28 @@
         <v>108.9199981689453</v>
       </c>
       <c r="K24">
-        <v>5.770287036895752</v>
+        <v>5.770286560058594</v>
       </c>
       <c r="L24">
-        <v>156.4027557373047</v>
+        <v>156.4027709960938</v>
       </c>
       <c r="M24">
-        <v>218.0049133300781</v>
+        <v>218.0048980712891</v>
       </c>
       <c r="N24">
-        <v>5019.345703125</v>
+        <v>5019.34619140625</v>
       </c>
       <c r="O24">
         <v>56.95999908447266</v>
       </c>
       <c r="P24">
-        <v>55.63069915771484</v>
+        <v>55.63071441650391</v>
       </c>
       <c r="Q24">
         <v>244.5832061767578</v>
       </c>
       <c r="R24">
-        <v>137.5130462646484</v>
+        <v>137.5130310058594</v>
       </c>
       <c r="S24">
         <v>23.3700008392334</v>
@@ -2297,13 +2297,13 @@
         <v>34.17803573608398</v>
       </c>
       <c r="W24">
-        <v>80.48876953125</v>
+        <v>80.48876190185547</v>
       </c>
       <c r="X24">
         <v>23.04999923706055</v>
       </c>
       <c r="Y24">
-        <v>21.29827880859375</v>
+        <v>21.29828071594238</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2311,40 +2311,40 @@
         <v>44326</v>
       </c>
       <c r="B25">
-        <v>152.5855712890625</v>
+        <v>152.5855560302734</v>
       </c>
       <c r="C25">
         <v>8.919672012329102</v>
       </c>
       <c r="D25">
-        <v>7.539916515350342</v>
+        <v>7.539915561676025</v>
       </c>
       <c r="E25">
-        <v>193.2008056640625</v>
+        <v>193.2008209228516</v>
       </c>
       <c r="F25">
         <v>137.2479400634766</v>
       </c>
       <c r="G25">
-        <v>129.7078704833984</v>
+        <v>129.7078552246094</v>
       </c>
       <c r="H25">
-        <v>1053.904052734375</v>
+        <v>1053.903930664062</v>
       </c>
       <c r="I25">
-        <v>31.00311279296875</v>
+        <v>31.00311088562012</v>
       </c>
       <c r="J25">
         <v>101.9800033569336</v>
       </c>
       <c r="K25">
-        <v>5.638070583343506</v>
+        <v>5.638070106506348</v>
       </c>
       <c r="L25">
         <v>157.999267578125</v>
       </c>
       <c r="M25">
-        <v>225.1761322021484</v>
+        <v>225.1761169433594</v>
       </c>
       <c r="N25">
         <v>5040.8310546875</v>
@@ -2374,7 +2374,7 @@
         <v>33.67268371582031</v>
       </c>
       <c r="W25">
-        <v>79.28862762451172</v>
+        <v>79.28861999511719</v>
       </c>
       <c r="X25">
         <v>24.57999992370605</v>
@@ -2388,22 +2388,22 @@
         <v>44333</v>
       </c>
       <c r="B26">
-        <v>151.3296051025391</v>
+        <v>151.3296203613281</v>
       </c>
       <c r="C26">
         <v>9.095437049865723</v>
       </c>
       <c r="D26">
-        <v>7.505721569061279</v>
+        <v>7.505721092224121</v>
       </c>
       <c r="E26">
-        <v>196.4893493652344</v>
+        <v>196.4893341064453</v>
       </c>
       <c r="F26">
         <v>142.1779022216797</v>
       </c>
       <c r="G26">
-        <v>129.6984710693359</v>
+        <v>129.6984558105469</v>
       </c>
       <c r="H26">
         <v>1067.71923828125</v>
@@ -2421,22 +2421,22 @@
         <v>158.6861724853516</v>
       </c>
       <c r="M26">
-        <v>233.6169738769531</v>
+        <v>233.6169891357422</v>
       </c>
       <c r="N26">
-        <v>5059.8427734375</v>
+        <v>5059.84228515625</v>
       </c>
       <c r="O26">
         <v>55.36999893188477</v>
       </c>
       <c r="P26">
-        <v>53.26784515380859</v>
+        <v>53.26785278320312</v>
       </c>
       <c r="Q26">
         <v>231.7051696777344</v>
       </c>
       <c r="R26">
-        <v>128.8096923828125</v>
+        <v>128.8097076416016</v>
       </c>
       <c r="S26">
         <v>23.54000091552734</v>
@@ -2451,7 +2451,7 @@
         <v>33.82340240478516</v>
       </c>
       <c r="W26">
-        <v>78.72742462158203</v>
+        <v>78.72740936279297</v>
       </c>
       <c r="X26">
         <v>27.88999938964844</v>
@@ -2468,22 +2468,22 @@
         <v>152.7995758056641</v>
       </c>
       <c r="C27">
-        <v>9.37633228302002</v>
+        <v>9.376334190368652</v>
       </c>
       <c r="D27">
-        <v>7.71088981628418</v>
+        <v>7.710890293121338</v>
       </c>
       <c r="E27">
-        <v>193.3241271972656</v>
+        <v>193.3241119384766</v>
       </c>
       <c r="F27">
         <v>150.5960083007812</v>
       </c>
       <c r="G27">
-        <v>126.7379684448242</v>
+        <v>126.7379379272461</v>
       </c>
       <c r="H27">
-        <v>1128.901000976562</v>
+        <v>1128.901123046875</v>
       </c>
       <c r="I27">
         <v>36.94273376464844</v>
@@ -2495,10 +2495,10 @@
         <v>5.458634376525879</v>
       </c>
       <c r="L27">
-        <v>157.0989074707031</v>
+        <v>157.0989227294922</v>
       </c>
       <c r="M27">
-        <v>226.9630432128906</v>
+        <v>226.9630279541016</v>
       </c>
       <c r="N27">
         <v>5038.599609375</v>
@@ -2522,13 +2522,13 @@
         <v>7.559999942779541</v>
       </c>
       <c r="U27">
-        <v>127.4394607543945</v>
+        <v>127.439453125</v>
       </c>
       <c r="V27">
         <v>33.18505859375</v>
       </c>
       <c r="W27">
-        <v>81.48426055908203</v>
+        <v>81.48424530029297</v>
       </c>
       <c r="X27">
         <v>30.70000076293945</v>
@@ -2548,22 +2548,22 @@
         <v>9.315553665161133</v>
       </c>
       <c r="D28">
-        <v>7.693792343139648</v>
+        <v>7.69379186630249</v>
       </c>
       <c r="E28">
-        <v>197.0561828613281</v>
+        <v>197.0562133789062</v>
       </c>
       <c r="F28">
         <v>149.8518676757812</v>
       </c>
       <c r="G28">
-        <v>127.7717819213867</v>
+        <v>127.7717666625977</v>
       </c>
       <c r="H28">
-        <v>1143.209716796875</v>
+        <v>1143.209594726562</v>
       </c>
       <c r="I28">
-        <v>36.14630508422852</v>
+        <v>36.14630126953125</v>
       </c>
       <c r="J28">
         <v>103.0199966430664</v>
@@ -2575,10 +2575,10 @@
         <v>155.0155487060547</v>
       </c>
       <c r="M28">
-        <v>231.1482086181641</v>
+        <v>231.148193359375</v>
       </c>
       <c r="N28">
-        <v>5097.23486328125</v>
+        <v>5097.2353515625</v>
       </c>
       <c r="O28">
         <v>61.31999969482422</v>
@@ -2599,13 +2599,13 @@
         <v>7.639999866485596</v>
       </c>
       <c r="U28">
-        <v>128.4786376953125</v>
+        <v>128.4786224365234</v>
       </c>
       <c r="V28">
         <v>34.25783157348633</v>
       </c>
       <c r="W28">
-        <v>81.54331970214844</v>
+        <v>81.5433349609375</v>
       </c>
       <c r="X28">
         <v>30.57999992370605</v>
@@ -2619,25 +2619,25 @@
         <v>44354</v>
       </c>
       <c r="B29">
-        <v>149.1247100830078</v>
+        <v>149.1246948242188</v>
       </c>
       <c r="C29">
-        <v>9.148001670837402</v>
+        <v>9.148000717163086</v>
       </c>
       <c r="D29">
         <v>7.497172832489014</v>
       </c>
       <c r="E29">
-        <v>195.7644653320312</v>
+        <v>195.7644805908203</v>
       </c>
       <c r="F29">
         <v>145.0149383544922</v>
       </c>
       <c r="G29">
-        <v>126.7473602294922</v>
+        <v>126.7473297119141</v>
       </c>
       <c r="H29">
-        <v>1181.694702148438</v>
+        <v>1181.69482421875</v>
       </c>
       <c r="I29">
         <v>36.38619232177734</v>
@@ -2646,7 +2646,7 @@
         <v>108.6399993896484</v>
       </c>
       <c r="K29">
-        <v>5.581406116485596</v>
+        <v>5.581406593322754</v>
       </c>
       <c r="L29">
         <v>154.0722045898438</v>
@@ -2655,7 +2655,7 @@
         <v>243.0218658447266</v>
       </c>
       <c r="N29">
-        <v>5289.291015625</v>
+        <v>5289.29052734375</v>
       </c>
       <c r="O29">
         <v>66.38999938964844</v>
@@ -2667,7 +2667,7 @@
         <v>213.3364562988281</v>
       </c>
       <c r="R29">
-        <v>131.7371978759766</v>
+        <v>131.7371826171875</v>
       </c>
       <c r="S29">
         <v>25.89999961853027</v>
@@ -2682,7 +2682,7 @@
         <v>32.68856811523438</v>
       </c>
       <c r="W29">
-        <v>80.332275390625</v>
+        <v>80.33228302001953</v>
       </c>
       <c r="X29">
         <v>31.85000038146973</v>
@@ -2696,22 +2696,22 @@
         <v>44361</v>
       </c>
       <c r="B30">
-        <v>137.6163940429688</v>
+        <v>137.6163482666016</v>
       </c>
       <c r="C30">
         <v>8.988664627075195</v>
       </c>
       <c r="D30">
-        <v>7.898958683013916</v>
+        <v>7.898959636688232</v>
       </c>
       <c r="E30">
-        <v>191.6726837158203</v>
+        <v>191.6726684570312</v>
       </c>
       <c r="F30">
         <v>137.1084136962891</v>
       </c>
       <c r="G30">
-        <v>124.0875930786133</v>
+        <v>124.0876007080078</v>
       </c>
       <c r="H30">
         <v>1196.990234375</v>
@@ -2723,7 +2723,7 @@
         <v>104.5</v>
       </c>
       <c r="K30">
-        <v>5.84583854675293</v>
+        <v>5.845838069915771</v>
       </c>
       <c r="L30">
         <v>151.2888793945312</v>
@@ -2738,7 +2738,7 @@
         <v>67.34999847412109</v>
       </c>
       <c r="P30">
-        <v>54.60587692260742</v>
+        <v>54.60587310791016</v>
       </c>
       <c r="Q30">
         <v>228.5105895996094</v>
@@ -2759,13 +2759,13 @@
         <v>31.62465858459473</v>
       </c>
       <c r="W30">
-        <v>76.43333435058594</v>
+        <v>76.43331909179688</v>
       </c>
       <c r="X30">
         <v>29.17000007629395</v>
       </c>
       <c r="Y30">
-        <v>19.93541526794434</v>
+        <v>19.9354133605957</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2779,10 +2779,10 @@
         <v>9.241634368896484</v>
       </c>
       <c r="D31">
-        <v>7.719437599182129</v>
+        <v>7.719438076019287</v>
       </c>
       <c r="E31">
-        <v>191.6726837158203</v>
+        <v>191.6726684570312</v>
       </c>
       <c r="F31">
         <v>142.6894836425781</v>
@@ -2791,7 +2791,7 @@
         <v>126.8037643432617</v>
       </c>
       <c r="H31">
-        <v>1210.805419921875</v>
+        <v>1210.805541992188</v>
       </c>
       <c r="I31">
         <v>35.26351928710938</v>
@@ -2800,28 +2800,28 @@
         <v>114.4100036621094</v>
       </c>
       <c r="K31">
-        <v>5.864726066589355</v>
+        <v>5.864727020263672</v>
       </c>
       <c r="L31">
-        <v>153.3717498779297</v>
+        <v>153.3717041015625</v>
       </c>
       <c r="M31">
-        <v>240.2944488525391</v>
+        <v>240.29443359375</v>
       </c>
       <c r="N31">
-        <v>5149.904296875</v>
+        <v>5149.90478515625</v>
       </c>
       <c r="O31">
         <v>73.5</v>
       </c>
       <c r="P31">
-        <v>58.45721435546875</v>
+        <v>58.45721817016602</v>
       </c>
       <c r="Q31">
         <v>233.5020904541016</v>
       </c>
       <c r="R31">
-        <v>128.8096923828125</v>
+        <v>128.8097076416016</v>
       </c>
       <c r="S31">
         <v>27.44000053405762</v>
@@ -2830,13 +2830,13 @@
         <v>8.149999618530273</v>
       </c>
       <c r="U31">
-        <v>129.3477630615234</v>
+        <v>129.3477478027344</v>
       </c>
       <c r="V31">
         <v>32.03249359130859</v>
       </c>
       <c r="W31">
-        <v>81.63195037841797</v>
+        <v>81.63193511962891</v>
       </c>
       <c r="X31">
         <v>31.85000038146973</v>
@@ -2850,25 +2850,25 @@
         <v>44375</v>
       </c>
       <c r="B32">
-        <v>145.1614379882812</v>
+        <v>145.1614532470703</v>
       </c>
       <c r="C32">
         <v>9.139789581298828</v>
       </c>
       <c r="D32">
-        <v>7.822021484375</v>
+        <v>7.822021961212158</v>
       </c>
       <c r="E32">
-        <v>194.1727600097656</v>
+        <v>194.1727752685547</v>
       </c>
       <c r="F32">
         <v>143.0150604248047</v>
       </c>
       <c r="G32">
-        <v>127.7247695922852</v>
+        <v>127.7247924804688</v>
       </c>
       <c r="H32">
-        <v>1201.924194335938</v>
+        <v>1201.924438476562</v>
       </c>
       <c r="I32">
         <v>36.75082397460938</v>
@@ -2877,13 +2877,13 @@
         <v>116.8000030517578</v>
       </c>
       <c r="K32">
-        <v>5.298086643218994</v>
+        <v>5.298086166381836</v>
       </c>
       <c r="L32">
         <v>157.8268432617188</v>
       </c>
       <c r="M32">
-        <v>249.4172058105469</v>
+        <v>249.4171752929688</v>
       </c>
       <c r="N32">
         <v>5408.3076171875</v>
@@ -2892,7 +2892,7 @@
         <v>66.04000091552734</v>
       </c>
       <c r="P32">
-        <v>57.11014556884766</v>
+        <v>57.11014175415039</v>
       </c>
       <c r="Q32">
         <v>245.1821899414062</v>
@@ -2907,7 +2907,7 @@
         <v>6.909999847412109</v>
       </c>
       <c r="U32">
-        <v>126.4569931030273</v>
+        <v>126.4569854736328</v>
       </c>
       <c r="V32">
         <v>33.26485061645508</v>
@@ -2919,7 +2919,7 @@
         <v>32.47999954223633</v>
       </c>
       <c r="Y32">
-        <v>20.91291999816895</v>
+        <v>20.91291809082031</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2930,13 +2930,13 @@
         <v>145.7546691894531</v>
       </c>
       <c r="C33">
-        <v>8.93281364440918</v>
+        <v>8.932812690734863</v>
       </c>
       <c r="D33">
-        <v>7.616853713989258</v>
+        <v>7.616854190826416</v>
       </c>
       <c r="E33">
-        <v>192.5727386474609</v>
+        <v>192.5727233886719</v>
       </c>
       <c r="F33">
         <v>140.6430969238281</v>
@@ -2945,7 +2945,7 @@
         <v>128.7868041992188</v>
       </c>
       <c r="H33">
-        <v>1219.193359375</v>
+        <v>1219.193237304688</v>
       </c>
       <c r="I33">
         <v>34.96605682373047</v>
@@ -2957,19 +2957,19 @@
         <v>5.090318202972412</v>
       </c>
       <c r="L33">
-        <v>158.5460510253906</v>
+        <v>158.5460357666016</v>
       </c>
       <c r="M33">
         <v>256.0946350097656</v>
       </c>
       <c r="N33">
-        <v>5296.37158203125</v>
+        <v>5296.37109375</v>
       </c>
       <c r="O33">
         <v>65.31999969482422</v>
       </c>
       <c r="P33">
-        <v>55.35625076293945</v>
+        <v>55.35624313354492</v>
       </c>
       <c r="Q33">
         <v>241.288818359375</v>
@@ -3004,28 +3004,28 @@
         <v>44389</v>
       </c>
       <c r="B34">
-        <v>142.1428375244141</v>
+        <v>142.1428527832031</v>
       </c>
       <c r="C34">
-        <v>8.58785343170166</v>
+        <v>8.587854385375977</v>
       </c>
       <c r="D34">
-        <v>7.565561771392822</v>
+        <v>7.56556224822998</v>
       </c>
       <c r="E34">
-        <v>190.6310119628906</v>
+        <v>190.6309967041016</v>
       </c>
       <c r="F34">
         <v>140.7361145019531</v>
       </c>
       <c r="G34">
-        <v>132.0574340820312</v>
+        <v>132.0574645996094</v>
       </c>
       <c r="H34">
         <v>1233.501953125</v>
       </c>
       <c r="I34">
-        <v>32.70151901245117</v>
+        <v>32.70151519775391</v>
       </c>
       <c r="J34">
         <v>112.2600021362305</v>
@@ -3037,7 +3037,7 @@
         <v>157.0049591064453</v>
       </c>
       <c r="M34">
-        <v>261.361328125</v>
+        <v>261.3613586425781</v>
       </c>
       <c r="N34">
         <v>5268.32763671875</v>
@@ -3046,13 +3046,13 @@
         <v>54.22000122070312</v>
       </c>
       <c r="P34">
-        <v>51.82133865356445</v>
+        <v>51.82133102416992</v>
       </c>
       <c r="Q34">
         <v>226.6138305664062</v>
       </c>
       <c r="R34">
-        <v>110.3743743896484</v>
+        <v>110.3743667602539</v>
       </c>
       <c r="S34">
         <v>22.64999961853027</v>
@@ -3073,7 +3073,7 @@
         <v>26.01000022888184</v>
       </c>
       <c r="Y34">
-        <v>21.47686386108398</v>
+        <v>21.47686195373535</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3081,22 +3081,22 @@
         <v>44396</v>
       </c>
       <c r="B35">
-        <v>140.9544830322266</v>
+        <v>140.9545135498047</v>
       </c>
       <c r="C35">
         <v>8.648632049560547</v>
       </c>
       <c r="D35">
-        <v>7.625402450561523</v>
+        <v>7.62540340423584</v>
       </c>
       <c r="E35">
-        <v>193.7560882568359</v>
+        <v>193.7561187744141</v>
       </c>
       <c r="F35">
         <v>135.8526763916016</v>
       </c>
       <c r="G35">
-        <v>131.3807830810547</v>
+        <v>131.3807525634766</v>
       </c>
       <c r="H35">
         <v>1271.000366210938</v>
@@ -3111,7 +3111,7 @@
         <v>5.005322456359863</v>
       </c>
       <c r="L35">
-        <v>160.4513854980469</v>
+        <v>160.4514007568359</v>
       </c>
       <c r="M35">
         <v>268.4620361328125</v>
@@ -3123,13 +3123,13 @@
         <v>53.68000030517578</v>
       </c>
       <c r="P35">
-        <v>51.56819534301758</v>
+        <v>51.56819915771484</v>
       </c>
       <c r="Q35">
         <v>233.6019287109375</v>
       </c>
       <c r="R35">
-        <v>106.418327331543</v>
+        <v>106.4183349609375</v>
       </c>
       <c r="S35">
         <v>23.75</v>
@@ -3138,7 +3138,7 @@
         <v>5.849999904632568</v>
       </c>
       <c r="U35">
-        <v>127.1182708740234</v>
+        <v>127.118278503418</v>
       </c>
       <c r="V35">
         <v>34.31989288330078</v>
@@ -3158,16 +3158,16 @@
         <v>44403</v>
       </c>
       <c r="B36">
-        <v>142.0211944580078</v>
+        <v>142.0212249755859</v>
       </c>
       <c r="C36">
         <v>8.908173561096191</v>
       </c>
       <c r="D36">
-        <v>7.71088981628418</v>
+        <v>7.710890293121338</v>
       </c>
       <c r="E36">
-        <v>195.0061187744141</v>
+        <v>195.0061340332031</v>
       </c>
       <c r="F36">
         <v>142.5034484863281</v>
@@ -3176,22 +3176,22 @@
         <v>134.5147247314453</v>
       </c>
       <c r="H36">
-        <v>1271.9873046875</v>
+        <v>1271.987182617188</v>
       </c>
       <c r="I36">
-        <v>35.22513580322266</v>
+        <v>35.22513198852539</v>
       </c>
       <c r="J36">
         <v>135.8099975585938</v>
       </c>
       <c r="K36">
-        <v>4.873106002807617</v>
+        <v>4.873105525970459</v>
       </c>
       <c r="L36">
         <v>160.8343353271484</v>
       </c>
       <c r="M36">
-        <v>272.7412109375</v>
+        <v>272.7412414550781</v>
       </c>
       <c r="N36">
         <v>4611.87060546875</v>
@@ -3200,7 +3200,7 @@
         <v>48.59000015258789</v>
       </c>
       <c r="P36">
-        <v>52.04734802246094</v>
+        <v>52.04735565185547</v>
       </c>
       <c r="Q36">
         <v>230.8066864013672</v>
@@ -3215,7 +3215,7 @@
         <v>6.090000152587891</v>
       </c>
       <c r="U36">
-        <v>124.3030776977539</v>
+        <v>124.3030853271484</v>
       </c>
       <c r="V36">
         <v>32.1300163269043</v>
@@ -3227,7 +3227,7 @@
         <v>27.28000068664551</v>
       </c>
       <c r="Y36">
-        <v>22.73633575439453</v>
+        <v>22.73633766174316</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3238,13 +3238,13 @@
         <v>147.3734283447266</v>
       </c>
       <c r="C37">
-        <v>9.47982120513916</v>
+        <v>9.479820251464844</v>
       </c>
       <c r="D37">
-        <v>7.941702842712402</v>
+        <v>7.941702365875244</v>
       </c>
       <c r="E37">
-        <v>194.8811340332031</v>
+        <v>194.8811492919922</v>
       </c>
       <c r="F37">
         <v>146.3637084960938</v>
@@ -3253,7 +3253,7 @@
         <v>133.7391967773438</v>
       </c>
       <c r="H37">
-        <v>1322.807495117188</v>
+        <v>1322.807373046875</v>
       </c>
       <c r="I37">
         <v>35.80154418945312</v>
@@ -3262,13 +3262,13 @@
         <v>140.8099975585938</v>
       </c>
       <c r="K37">
-        <v>4.854218006134033</v>
+        <v>4.854218482971191</v>
       </c>
       <c r="L37">
-        <v>161.6842651367188</v>
+        <v>161.6842956542969</v>
       </c>
       <c r="M37">
-        <v>294.795654296875</v>
+        <v>294.7956848144531</v>
       </c>
       <c r="N37">
         <v>4685.38720703125</v>
@@ -3277,7 +3277,7 @@
         <v>51.15999984741211</v>
       </c>
       <c r="P37">
-        <v>52.30953216552734</v>
+        <v>52.30953598022461</v>
       </c>
       <c r="Q37">
         <v>248.2769165039062</v>
@@ -3298,7 +3298,7 @@
         <v>32.36939239501953</v>
       </c>
       <c r="W37">
-        <v>84.80229949951172</v>
+        <v>84.80229187011719</v>
       </c>
       <c r="X37">
         <v>25.89999961853027</v>
@@ -3312,7 +3312,7 @@
         <v>44417</v>
       </c>
       <c r="B38">
-        <v>149.6939849853516</v>
+        <v>149.6939544677734</v>
       </c>
       <c r="C38">
         <v>9.611234664916992</v>
@@ -3321,16 +3321,16 @@
         <v>8.189613342285156</v>
       </c>
       <c r="E38">
-        <v>195.0061187744141</v>
+        <v>195.0061340332031</v>
       </c>
       <c r="F38">
         <v>145.1079559326172</v>
       </c>
       <c r="G38">
-        <v>135.8482360839844</v>
+        <v>135.8482513427734</v>
       </c>
       <c r="H38">
-        <v>1329.715209960938</v>
+        <v>1329.715087890625</v>
       </c>
       <c r="I38">
         <v>36.13975143432617</v>
@@ -3339,10 +3339,10 @@
         <v>146.5899963378906</v>
       </c>
       <c r="K38">
-        <v>4.920325756072998</v>
+        <v>4.920326232910156</v>
       </c>
       <c r="L38">
-        <v>164.6170196533203</v>
+        <v>164.6170349121094</v>
       </c>
       <c r="M38">
         <v>304.3416137695312</v>
@@ -3354,13 +3354,13 @@
         <v>22.86000061035156</v>
       </c>
       <c r="P38">
-        <v>51.3240966796875</v>
+        <v>51.32409286499023</v>
       </c>
       <c r="Q38">
         <v>241.1889953613281</v>
       </c>
       <c r="R38">
-        <v>145.6625671386719</v>
+        <v>145.6625518798828</v>
       </c>
       <c r="S38">
         <v>22.70000076293945</v>
@@ -3369,19 +3369,19 @@
         <v>5.239999771118164</v>
       </c>
       <c r="U38">
-        <v>134.2601623535156</v>
+        <v>134.2601776123047</v>
       </c>
       <c r="V38">
         <v>31.88176918029785</v>
       </c>
       <c r="W38">
-        <v>87.53945922851562</v>
+        <v>87.53945159912109</v>
       </c>
       <c r="X38">
         <v>24.98999977111816</v>
       </c>
       <c r="Y38">
-        <v>23.95821571350098</v>
+        <v>23.95821380615234</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3389,7 +3389,7 @@
         <v>44424</v>
       </c>
       <c r="B39">
-        <v>144.7721862792969</v>
+        <v>144.7721710205078</v>
       </c>
       <c r="C39">
         <v>9.31226921081543</v>
@@ -3398,16 +3398,16 @@
         <v>7.93315315246582</v>
       </c>
       <c r="E39">
-        <v>194.9727783203125</v>
+        <v>194.9727935791016</v>
       </c>
       <c r="F39">
         <v>142.1313781738281</v>
       </c>
       <c r="G39">
-        <v>137.2195892333984</v>
+        <v>137.2195587158203</v>
       </c>
       <c r="H39">
-        <v>1216.726318359375</v>
+        <v>1216.726196289062</v>
       </c>
       <c r="I39">
         <v>35.3570442199707</v>
@@ -3416,22 +3416,22 @@
         <v>141.9299926757812</v>
       </c>
       <c r="K39">
-        <v>4.976990222930908</v>
+        <v>4.97698974609375</v>
       </c>
       <c r="L39">
         <v>167.5964813232422</v>
       </c>
       <c r="M39">
-        <v>320.0477600097656</v>
+        <v>320.0477294921875</v>
       </c>
       <c r="N39">
-        <v>4459.94287109375</v>
+        <v>4459.9423828125</v>
       </c>
       <c r="O39">
         <v>21.55999946594238</v>
       </c>
       <c r="P39">
-        <v>48.40237426757812</v>
+        <v>48.40237045288086</v>
       </c>
       <c r="Q39">
         <v>251.671142578125</v>
@@ -3452,13 +3452,13 @@
         <v>30.65827941894531</v>
       </c>
       <c r="W39">
-        <v>84.53166961669922</v>
+        <v>84.53166198730469</v>
       </c>
       <c r="X39">
         <v>24.22999954223633</v>
       </c>
       <c r="Y39">
-        <v>21.96561431884766</v>
+        <v>21.96561622619629</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3469,22 +3469,22 @@
         <v>152.5665893554688</v>
       </c>
       <c r="C40">
-        <v>9.578380584716797</v>
+        <v>9.578381538391113</v>
       </c>
       <c r="D40">
-        <v>8.095578193664551</v>
+        <v>8.095579147338867</v>
       </c>
       <c r="E40">
-        <v>196.5478515625</v>
+        <v>196.5478668212891</v>
       </c>
       <c r="F40">
         <v>141.0151672363281</v>
       </c>
       <c r="G40">
-        <v>134.5903930664062</v>
+        <v>134.5903778076172</v>
       </c>
       <c r="H40">
-        <v>1224.620727539062</v>
+        <v>1224.62060546875</v>
       </c>
       <c r="I40">
         <v>36.87414169311523</v>
@@ -3493,13 +3493,13 @@
         <v>146.0899963378906</v>
       </c>
       <c r="K40">
-        <v>5.203646183013916</v>
+        <v>5.203646659851074</v>
       </c>
       <c r="L40">
-        <v>161.5161743164062</v>
+        <v>161.5161590576172</v>
       </c>
       <c r="M40">
-        <v>306.6234741210938</v>
+        <v>306.6234436035156</v>
       </c>
       <c r="N40">
         <v>4503.55322265625</v>
@@ -3529,7 +3529,7 @@
         <v>33.14072799682617</v>
       </c>
       <c r="W40">
-        <v>88.84008026123047</v>
+        <v>88.84006500244141</v>
       </c>
       <c r="X40">
         <v>26.60000038146973</v>
@@ -3543,16 +3543,16 @@
         <v>44438</v>
       </c>
       <c r="B41">
-        <v>149.2354736328125</v>
+        <v>149.2354888916016</v>
       </c>
       <c r="C41">
         <v>9.685153961181641</v>
       </c>
       <c r="D41">
-        <v>8.138322830200195</v>
+        <v>8.138321876525879</v>
       </c>
       <c r="E41">
-        <v>191.6726837158203</v>
+        <v>191.6726684570312</v>
       </c>
       <c r="F41">
         <v>149.4797973632812</v>
@@ -3573,10 +3573,10 @@
         <v>5.250865936279297</v>
       </c>
       <c r="L41">
-        <v>164.4583892822266</v>
+        <v>164.4583587646484</v>
       </c>
       <c r="M41">
-        <v>299.3025207519531</v>
+        <v>299.302490234375</v>
       </c>
       <c r="N41">
         <v>4795.2705078125</v>
@@ -3585,7 +3585,7 @@
         <v>26.69000053405762</v>
       </c>
       <c r="P41">
-        <v>50.35718154907227</v>
+        <v>50.3571891784668</v>
       </c>
       <c r="Q41">
         <v>265.04833984375</v>
@@ -3620,22 +3620,22 @@
         <v>44445</v>
       </c>
       <c r="B42">
-        <v>147.242431640625</v>
+        <v>147.2424163818359</v>
       </c>
       <c r="C42">
         <v>9.557026863098145</v>
       </c>
       <c r="D42">
-        <v>8.018641471862793</v>
+        <v>8.018640518188477</v>
       </c>
       <c r="E42">
-        <v>197.3602294921875</v>
+        <v>197.3602447509766</v>
       </c>
       <c r="F42">
         <v>146.5032348632812</v>
       </c>
       <c r="G42">
-        <v>136.3116760253906</v>
+        <v>136.3116455078125</v>
       </c>
       <c r="H42">
         <v>1284.815551757812</v>
@@ -3647,22 +3647,22 @@
         <v>144.1100006103516</v>
       </c>
       <c r="K42">
-        <v>5.288985252380371</v>
+        <v>5.288985729217529</v>
       </c>
       <c r="L42">
         <v>156.8762359619141</v>
       </c>
       <c r="M42">
-        <v>298.30419921875</v>
+        <v>298.3042297363281</v>
       </c>
       <c r="N42">
-        <v>4808.48583984375</v>
+        <v>4808.4853515625</v>
       </c>
       <c r="O42">
         <v>27.38999938964844</v>
       </c>
       <c r="P42">
-        <v>49.54039001464844</v>
+        <v>49.54038619995117</v>
       </c>
       <c r="Q42">
         <v>249.57470703125</v>
@@ -3683,7 +3683,7 @@
         <v>36.0576057434082</v>
       </c>
       <c r="W42">
-        <v>88.13022613525391</v>
+        <v>88.13023376464844</v>
       </c>
       <c r="X42">
         <v>24.15999984741211</v>
@@ -3697,16 +3697,16 @@
         <v>44452</v>
       </c>
       <c r="B43">
-        <v>147.5418548583984</v>
+        <v>147.5418395996094</v>
       </c>
       <c r="C43">
-        <v>9.607948303222656</v>
+        <v>9.607950210571289</v>
       </c>
       <c r="D43">
         <v>8.087029457092285</v>
       </c>
       <c r="E43">
-        <v>195.5437927246094</v>
+        <v>195.5437774658203</v>
       </c>
       <c r="F43">
         <v>151.3866577148438</v>
@@ -3718,28 +3718,28 @@
         <v>1260.638916015625</v>
       </c>
       <c r="I43">
-        <v>36.73885726928711</v>
+        <v>36.73886108398438</v>
       </c>
       <c r="J43">
         <v>155.1799926757812</v>
       </c>
       <c r="K43">
-        <v>5.079331398010254</v>
+        <v>5.079331874847412</v>
       </c>
       <c r="L43">
-        <v>154.7904357910156</v>
+        <v>154.7904815673828</v>
       </c>
       <c r="M43">
-        <v>305.8628540039062</v>
+        <v>305.8628845214844</v>
       </c>
       <c r="N43">
-        <v>4781.56591796875</v>
+        <v>4781.56494140625</v>
       </c>
       <c r="O43">
         <v>29.71999931335449</v>
       </c>
       <c r="P43">
-        <v>50.62333679199219</v>
+        <v>50.62334060668945</v>
       </c>
       <c r="Q43">
         <v>247.2786102294922</v>
@@ -3754,13 +3754,13 @@
         <v>6.699999809265137</v>
       </c>
       <c r="U43">
-        <v>141.2509155273438</v>
+        <v>141.2509307861328</v>
       </c>
       <c r="V43">
         <v>33.53083038330078</v>
       </c>
       <c r="W43">
-        <v>86.24714660644531</v>
+        <v>86.24713897705078</v>
       </c>
       <c r="X43">
         <v>26.46999931335449</v>
@@ -3774,16 +3774,16 @@
         <v>44459</v>
       </c>
       <c r="B44">
-        <v>152.5572357177734</v>
+        <v>152.5572204589844</v>
       </c>
       <c r="C44">
         <v>9.786998748779297</v>
       </c>
       <c r="D44">
-        <v>7.873313426971436</v>
+        <v>7.873312473297119</v>
       </c>
       <c r="E44">
-        <v>191.0237731933594</v>
+        <v>191.0237579345703</v>
       </c>
       <c r="F44">
         <v>146.6892700195312</v>
@@ -3804,7 +3804,7 @@
         <v>5.098391056060791</v>
       </c>
       <c r="L44">
-        <v>154.4240417480469</v>
+        <v>154.4240264892578</v>
       </c>
       <c r="M44">
         <v>305.1497802734375</v>
@@ -3816,7 +3816,7 @@
         <v>33.40000152587891</v>
       </c>
       <c r="P44">
-        <v>52.85347747802734</v>
+        <v>52.85348129272461</v>
       </c>
       <c r="Q44">
         <v>259.9570007324219</v>
@@ -3851,7 +3851,7 @@
         <v>44466</v>
       </c>
       <c r="B45">
-        <v>156.3842468261719</v>
+        <v>156.3842926025391</v>
       </c>
       <c r="C45">
         <v>10.26994323730469</v>
@@ -3860,46 +3860,46 @@
         <v>7.93315315246582</v>
       </c>
       <c r="E45">
-        <v>197.4785461425781</v>
+        <v>197.4785308837891</v>
       </c>
       <c r="F45">
         <v>164.502197265625</v>
       </c>
       <c r="G45">
-        <v>132.0084686279297</v>
+        <v>132.0084838867188</v>
       </c>
       <c r="H45">
-        <v>1179.72119140625</v>
+        <v>1179.721313476562</v>
       </c>
       <c r="I45">
-        <v>35.75322723388672</v>
+        <v>35.75323104858398</v>
       </c>
       <c r="J45">
         <v>141.1300048828125</v>
       </c>
       <c r="K45">
-        <v>5.01262378692627</v>
+        <v>5.012624263763428</v>
       </c>
       <c r="L45">
-        <v>150.7691650390625</v>
+        <v>150.7691955566406</v>
       </c>
       <c r="M45">
         <v>291.4111328125</v>
       </c>
       <c r="N45">
-        <v>4851.36279296875</v>
+        <v>4851.3623046875</v>
       </c>
       <c r="O45">
         <v>34.27999877929688</v>
       </c>
       <c r="P45">
-        <v>55.91877746582031</v>
+        <v>55.91878509521484</v>
       </c>
       <c r="Q45">
         <v>247.7777709960938</v>
       </c>
       <c r="R45">
-        <v>149.6977691650391</v>
+        <v>149.69775390625</v>
       </c>
       <c r="S45">
         <v>24.8700008392334</v>
@@ -3908,19 +3908,19 @@
         <v>6.599999904632568</v>
       </c>
       <c r="U45">
-        <v>130.0846252441406</v>
+        <v>130.0846099853516</v>
       </c>
       <c r="V45">
         <v>29.93127059936523</v>
       </c>
       <c r="W45">
-        <v>87.35136413574219</v>
+        <v>87.35135650634766</v>
       </c>
       <c r="X45">
         <v>25.56999969482422</v>
       </c>
       <c r="Y45">
-        <v>18.82610893249512</v>
+        <v>18.82610511779785</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -3928,7 +3928,7 @@
         <v>44473</v>
       </c>
       <c r="B46">
-        <v>159.2755889892578</v>
+        <v>159.2756042480469</v>
       </c>
       <c r="C46">
         <v>10.3816442489624</v>
@@ -3937,16 +3937,16 @@
         <v>8.300746917724609</v>
       </c>
       <c r="E46">
-        <v>197.6897583007812</v>
+        <v>197.6897735595703</v>
       </c>
       <c r="F46">
         <v>164.874267578125</v>
       </c>
       <c r="G46">
-        <v>134.0418548583984</v>
+        <v>134.0418243408203</v>
       </c>
       <c r="H46">
-        <v>1196.496948242188</v>
+        <v>1196.496826171875</v>
       </c>
       <c r="I46">
         <v>30.18732070922852</v>
@@ -3958,10 +3958,10 @@
         <v>5.384282112121582</v>
       </c>
       <c r="L46">
-        <v>151.2013854980469</v>
+        <v>151.2013549804688</v>
       </c>
       <c r="M46">
-        <v>300.5385131835938</v>
+        <v>300.5385437011719</v>
       </c>
       <c r="N46">
         <v>4746.96142578125</v>
@@ -3970,7 +3970,7 @@
         <v>32.20000076293945</v>
       </c>
       <c r="P46">
-        <v>57.06597518920898</v>
+        <v>57.06597137451172</v>
       </c>
       <c r="Q46">
         <v>222.1214904785156</v>
@@ -3985,7 +3985,7 @@
         <v>6.809999942779541</v>
       </c>
       <c r="U46">
-        <v>130.0468292236328</v>
+        <v>130.0468444824219</v>
       </c>
       <c r="V46">
         <v>30.35683631896973</v>
@@ -3997,7 +3997,7 @@
         <v>27.19000053405762</v>
       </c>
       <c r="Y46">
-        <v>19.21456909179688</v>
+        <v>19.21456718444824</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4005,13 +4005,13 @@
         <v>44480</v>
       </c>
       <c r="B47">
-        <v>156.8371124267578</v>
+        <v>156.8370971679688</v>
       </c>
       <c r="C47">
         <v>11.07281494140625</v>
       </c>
       <c r="D47">
-        <v>7.975898265838623</v>
+        <v>7.975897789001465</v>
       </c>
       <c r="E47">
         <v>196.8533172607422</v>
@@ -4026,34 +4026,34 @@
         <v>1272.480590820312</v>
       </c>
       <c r="I47">
-        <v>30.39024353027344</v>
+        <v>30.39024543762207</v>
       </c>
       <c r="J47">
         <v>137.1900024414062</v>
       </c>
       <c r="K47">
-        <v>5.212747097015381</v>
+        <v>5.212747573852539</v>
       </c>
       <c r="L47">
-        <v>151.5490112304688</v>
+        <v>151.5489959716797</v>
       </c>
       <c r="M47">
         <v>312.803466796875</v>
       </c>
       <c r="N47">
-        <v>4854.15234375</v>
+        <v>4854.15283203125</v>
       </c>
       <c r="O47">
         <v>40.09999847412109</v>
       </c>
       <c r="P47">
-        <v>57.44225692749023</v>
+        <v>57.4422492980957</v>
       </c>
       <c r="Q47">
         <v>251.5713043212891</v>
       </c>
       <c r="R47">
-        <v>151.2801666259766</v>
+        <v>151.2801818847656</v>
       </c>
       <c r="S47">
         <v>27.54000091552734</v>
@@ -4068,13 +4068,13 @@
         <v>31.94383239746094</v>
       </c>
       <c r="W47">
-        <v>90.70344543457031</v>
+        <v>90.70343780517578</v>
       </c>
       <c r="X47">
         <v>31.23999977111816</v>
       </c>
       <c r="Y47">
-        <v>19.86831665039062</v>
+        <v>19.86831855773926</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4088,10 +4088,10 @@
         <v>11.15139484405518</v>
       </c>
       <c r="D48">
-        <v>7.77927827835083</v>
+        <v>7.779278755187988</v>
       </c>
       <c r="E48">
-        <v>200.1398468017578</v>
+        <v>200.1398620605469</v>
       </c>
       <c r="F48">
         <v>184.7335968017578</v>
@@ -4103,7 +4103,7 @@
         <v>1340.076538085938</v>
       </c>
       <c r="I48">
-        <v>31.69475555419922</v>
+        <v>31.69475173950195</v>
       </c>
       <c r="J48">
         <v>149.7599945068359</v>
@@ -4112,25 +4112,25 @@
         <v>5.136509895324707</v>
       </c>
       <c r="L48">
-        <v>153.8226928710938</v>
+        <v>153.8227233886719</v>
       </c>
       <c r="M48">
-        <v>322.0259704589844</v>
+        <v>322.0259399414062</v>
       </c>
       <c r="N48">
-        <v>4539.67626953125</v>
+        <v>4539.67529296875</v>
       </c>
       <c r="O48">
         <v>40.09999847412109</v>
       </c>
       <c r="P48">
-        <v>57.92865753173828</v>
+        <v>57.92866134643555</v>
       </c>
       <c r="Q48">
         <v>273.8333435058594</v>
       </c>
       <c r="R48">
-        <v>148.5900421142578</v>
+        <v>148.5900573730469</v>
       </c>
       <c r="S48">
         <v>29.40999984741211</v>
@@ -4139,13 +4139,13 @@
         <v>6.510000228881836</v>
       </c>
       <c r="U48">
-        <v>131.8417358398438</v>
+        <v>131.8417510986328</v>
       </c>
       <c r="V48">
         <v>32.54671096801758</v>
       </c>
       <c r="W48">
-        <v>91.09781646728516</v>
+        <v>91.09780883789062</v>
       </c>
       <c r="X48">
         <v>32.70000076293945</v>
@@ -4159,22 +4159,22 @@
         <v>44494</v>
       </c>
       <c r="B49">
-        <v>159.9247283935547</v>
+        <v>159.9246978759766</v>
       </c>
       <c r="C49">
-        <v>11.2060604095459</v>
+        <v>11.20605850219727</v>
       </c>
       <c r="D49">
         <v>7.522819042205811</v>
       </c>
       <c r="E49">
-        <v>194.3187408447266</v>
+        <v>194.3187255859375</v>
       </c>
       <c r="F49">
         <v>199.5234527587891</v>
       </c>
       <c r="G49">
-        <v>136.0718383789062</v>
+        <v>136.0718688964844</v>
       </c>
       <c r="H49">
         <v>1352.411499023438</v>
@@ -4186,22 +4186,22 @@
         <v>161.4499969482422</v>
       </c>
       <c r="K49">
-        <v>5.165098667144775</v>
+        <v>5.165099143981934</v>
       </c>
       <c r="L49">
-        <v>153.0335083007812</v>
+        <v>153.0334777832031</v>
       </c>
       <c r="M49">
         <v>334.8138122558594</v>
       </c>
       <c r="N49">
-        <v>4560.96728515625</v>
+        <v>4560.966796875</v>
       </c>
       <c r="O49">
         <v>38.5</v>
       </c>
       <c r="P49">
-        <v>59.16764068603516</v>
+        <v>59.16762542724609</v>
       </c>
       <c r="Q49">
         <v>277.8265380859375</v>
@@ -4216,7 +4216,7 @@
         <v>7.230000019073486</v>
       </c>
       <c r="U49">
-        <v>132.5219268798828</v>
+        <v>132.5219421386719</v>
       </c>
       <c r="V49">
         <v>31.89950370788574</v>
@@ -4228,7 +4228,7 @@
         <v>38.27000045776367</v>
       </c>
       <c r="Y49">
-        <v>19.53670692443848</v>
+        <v>19.53670501708984</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4236,13 +4236,13 @@
         <v>44501</v>
       </c>
       <c r="B50">
-        <v>158.1926574707031</v>
+        <v>158.192626953125</v>
       </c>
       <c r="C50">
         <v>11.37175750732422</v>
       </c>
       <c r="D50">
-        <v>7.619336605072021</v>
+        <v>7.619335174560547</v>
       </c>
       <c r="E50">
         <v>200.39599609375</v>
@@ -4251,10 +4251,10 @@
         <v>212.8249969482422</v>
       </c>
       <c r="G50">
-        <v>138.9742584228516</v>
+        <v>138.9742889404297</v>
       </c>
       <c r="H50">
-        <v>1439.743530273438</v>
+        <v>1439.743286132812</v>
       </c>
       <c r="I50">
         <v>32.08127593994141</v>
@@ -4278,7 +4278,7 @@
         <v>40.20000076293945</v>
       </c>
       <c r="P50">
-        <v>59.67239761352539</v>
+        <v>59.67239379882812</v>
       </c>
       <c r="Q50">
         <v>209.6427459716797</v>
@@ -4299,7 +4299,7 @@
         <v>34.94937133789062</v>
       </c>
       <c r="W50">
-        <v>92.88230133056641</v>
+        <v>92.88230895996094</v>
       </c>
       <c r="X50">
         <v>38.36999893188477</v>
@@ -4319,19 +4319,19 @@
         <v>11.34271812438965</v>
       </c>
       <c r="D51">
-        <v>7.531757831573486</v>
+        <v>7.531757354736328</v>
       </c>
       <c r="E51">
-        <v>201.2609558105469</v>
+        <v>201.2609710693359</v>
       </c>
       <c r="F51">
         <v>214.6853637695312</v>
       </c>
       <c r="G51">
-        <v>139.4691009521484</v>
+        <v>139.4691162109375</v>
       </c>
       <c r="H51">
-        <v>1458.986083984375</v>
+        <v>1458.985961914062</v>
       </c>
       <c r="I51">
         <v>32.77701187133789</v>
@@ -4340,22 +4340,22 @@
         <v>180.5700073242188</v>
       </c>
       <c r="K51">
-        <v>5.231806755065918</v>
+        <v>5.23180627822876</v>
       </c>
       <c r="L51">
-        <v>155.0347290039062</v>
+        <v>155.0347137451172</v>
       </c>
       <c r="M51">
-        <v>348.5999755859375</v>
+        <v>348.5999450683594</v>
       </c>
       <c r="N51">
-        <v>4741.13623046875</v>
+        <v>4741.13671875</v>
       </c>
       <c r="O51">
         <v>39.2599983215332</v>
       </c>
       <c r="P51">
-        <v>58.57109451293945</v>
+        <v>58.57109069824219</v>
       </c>
       <c r="Q51">
         <v>237.6949615478516</v>
@@ -4376,13 +4376,13 @@
         <v>35.04689407348633</v>
       </c>
       <c r="W51">
-        <v>95.74142456054688</v>
+        <v>95.74143218994141</v>
       </c>
       <c r="X51">
         <v>43.13999938964844</v>
       </c>
       <c r="Y51">
-        <v>19.83989334106445</v>
+        <v>19.83989524841309</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4390,22 +4390,22 @@
         <v>44515</v>
       </c>
       <c r="B52">
-        <v>151.4808959960938</v>
+        <v>151.4808654785156</v>
       </c>
       <c r="C52">
-        <v>10.95836353302002</v>
+        <v>10.95836448669434</v>
       </c>
       <c r="D52">
         <v>7.128896236419678</v>
       </c>
       <c r="E52">
-        <v>201.9889221191406</v>
+        <v>201.9889526367188</v>
       </c>
       <c r="F52">
         <v>204.2208557128906</v>
       </c>
       <c r="G52">
-        <v>139.7165374755859</v>
+        <v>139.716552734375</v>
       </c>
       <c r="H52">
         <v>1653.385986328125</v>
@@ -4417,10 +4417,10 @@
         <v>175.5</v>
       </c>
       <c r="K52">
-        <v>5.39381217956543</v>
+        <v>5.393811225891113</v>
       </c>
       <c r="L52">
-        <v>153.0428771972656</v>
+        <v>153.0428924560547</v>
       </c>
       <c r="M52">
         <v>357.1568908691406</v>
@@ -4447,7 +4447,7 @@
         <v>6.309999942779541</v>
       </c>
       <c r="U52">
-        <v>146.6168060302734</v>
+        <v>146.6167907714844</v>
       </c>
       <c r="V52">
         <v>33.85000228881836</v>
@@ -4459,7 +4459,7 @@
         <v>44.54999923706055</v>
       </c>
       <c r="Y52">
-        <v>19.62197685241699</v>
+        <v>19.62197494506836</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4467,10 +4467,10 @@
         <v>44522</v>
       </c>
       <c r="B53">
-        <v>152.4316253662109</v>
+        <v>152.431640625</v>
       </c>
       <c r="C53">
-        <v>10.33143997192383</v>
+        <v>10.33143901824951</v>
       </c>
       <c r="D53">
         <v>6.787339210510254</v>
@@ -4482,7 +4482,7 @@
         <v>188.5008087158203</v>
       </c>
       <c r="G53">
-        <v>140.3350982666016</v>
+        <v>140.3350830078125</v>
       </c>
       <c r="H53">
         <v>1582.829711914062</v>
@@ -4494,10 +4494,10 @@
         <v>168.0399932861328</v>
       </c>
       <c r="K53">
-        <v>5.365222454071045</v>
+        <v>5.365222930908203</v>
       </c>
       <c r="L53">
-        <v>149.575927734375</v>
+        <v>149.5759582519531</v>
       </c>
       <c r="M53">
         <v>338.7119750976562</v>
@@ -4509,13 +4509,13 @@
         <v>36.91999816894531</v>
       </c>
       <c r="P53">
-        <v>56.96791458129883</v>
+        <v>56.96791076660156</v>
       </c>
       <c r="Q53">
         <v>223.4192810058594</v>
       </c>
       <c r="R53">
-        <v>143.2889099121094</v>
+        <v>143.2889251708984</v>
       </c>
       <c r="S53">
         <v>28.46999931335449</v>
@@ -4530,7 +4530,7 @@
         <v>30.74693870544434</v>
       </c>
       <c r="W53">
-        <v>91.82257843017578</v>
+        <v>91.82258605957031</v>
       </c>
       <c r="X53">
         <v>40.25</v>
@@ -4544,16 +4544,16 @@
         <v>44529</v>
       </c>
       <c r="B54">
-        <v>149.0051422119141</v>
+        <v>149.0051574707031</v>
       </c>
       <c r="C54">
-        <v>10.49542999267578</v>
+        <v>10.4954309463501</v>
       </c>
       <c r="D54">
-        <v>6.682245254516602</v>
+        <v>6.68224573135376</v>
       </c>
       <c r="E54">
-        <v>203.4020538330078</v>
+        <v>203.4020233154297</v>
       </c>
       <c r="F54">
         <v>192.0820007324219</v>
@@ -4574,19 +4574,19 @@
         <v>5.241336822509766</v>
       </c>
       <c r="L54">
-        <v>150.7259368896484</v>
+        <v>150.7259216308594</v>
       </c>
       <c r="M54">
         <v>334.8138122558594</v>
       </c>
       <c r="N54">
-        <v>4499.58935546875</v>
+        <v>4499.5888671875</v>
       </c>
       <c r="O54">
         <v>32.2400016784668</v>
       </c>
       <c r="P54">
-        <v>56.63308715820312</v>
+        <v>56.63308334350586</v>
       </c>
       <c r="Q54">
         <v>202.6546630859375</v>
@@ -4613,7 +4613,7 @@
         <v>33.45999908447266</v>
       </c>
       <c r="Y54">
-        <v>19.39458656311035</v>
+        <v>19.39458465576172</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -4621,13 +4621,13 @@
         <v>44536</v>
       </c>
       <c r="B55">
-        <v>150.4454040527344</v>
+        <v>150.4454345703125</v>
       </c>
       <c r="C55">
         <v>10.44760036468506</v>
       </c>
       <c r="D55">
-        <v>6.953738689422607</v>
+        <v>6.953739166259766</v>
       </c>
       <c r="E55">
         <v>204.8487091064453</v>
@@ -4636,13 +4636,13 @@
         <v>206.6393127441406</v>
       </c>
       <c r="G55">
-        <v>147.9385070800781</v>
+        <v>147.9385223388672</v>
       </c>
       <c r="H55">
-        <v>1571.481567382812</v>
+        <v>1571.4814453125</v>
       </c>
       <c r="I55">
-        <v>29.36596298217773</v>
+        <v>29.3659610748291</v>
       </c>
       <c r="J55">
         <v>158.6999969482422</v>
@@ -4663,7 +4663,7 @@
         <v>33.15000152587891</v>
       </c>
       <c r="P55">
-        <v>58.60487365722656</v>
+        <v>58.6048698425293</v>
       </c>
       <c r="Q55">
         <v>204.9507446289062</v>
@@ -4684,13 +4684,13 @@
         <v>30.8621940612793</v>
       </c>
       <c r="W55">
-        <v>89.76937103271484</v>
+        <v>89.76936340332031</v>
       </c>
       <c r="X55">
         <v>33.22000122070312</v>
       </c>
       <c r="Y55">
-        <v>20.06728553771973</v>
+        <v>20.06728363037109</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -4698,22 +4698,22 @@
         <v>44543</v>
       </c>
       <c r="B56">
-        <v>147.5648803710938</v>
+        <v>147.5648651123047</v>
       </c>
       <c r="C56">
-        <v>10.18453025817871</v>
+        <v>10.18453121185303</v>
       </c>
       <c r="D56">
         <v>7.067590713500977</v>
       </c>
       <c r="E56">
-        <v>199.8576812744141</v>
+        <v>199.857666015625</v>
       </c>
       <c r="F56">
         <v>187.9892272949219</v>
       </c>
       <c r="G56">
-        <v>149.8417663574219</v>
+        <v>149.8417510986328</v>
       </c>
       <c r="H56">
         <v>1504.872436523438</v>
@@ -4725,13 +4725,13 @@
         <v>136.1199951171875</v>
       </c>
       <c r="K56">
-        <v>5.317574024200439</v>
+        <v>5.317574501037598</v>
       </c>
       <c r="L56">
         <v>159.0953674316406</v>
       </c>
       <c r="M56">
-        <v>363.6221313476562</v>
+        <v>363.6221618652344</v>
       </c>
       <c r="N56">
         <v>4422.6953125</v>
@@ -4740,13 +4740,13 @@
         <v>35.29999923706055</v>
       </c>
       <c r="P56">
-        <v>55.83320617675781</v>
+        <v>55.83320236206055</v>
       </c>
       <c r="Q56">
         <v>193.86962890625</v>
       </c>
       <c r="R56">
-        <v>145.9790496826172</v>
+        <v>145.9790344238281</v>
       </c>
       <c r="S56">
         <v>21.44000053405762</v>
@@ -4761,13 +4761,13 @@
         <v>30.41003036499023</v>
       </c>
       <c r="W56">
-        <v>87.81484985351562</v>
+        <v>87.81485748291016</v>
       </c>
       <c r="X56">
         <v>29.75</v>
       </c>
       <c r="Y56">
-        <v>19.94411659240723</v>
+        <v>19.94411277770996</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -4775,34 +4775,34 @@
         <v>44550</v>
       </c>
       <c r="B57">
-        <v>148.0355682373047</v>
+        <v>148.0355834960938</v>
       </c>
       <c r="C57">
-        <v>10.42880821228027</v>
+        <v>10.42881011962891</v>
       </c>
       <c r="D57">
         <v>7.120138168334961</v>
       </c>
       <c r="E57">
-        <v>200.7257080078125</v>
+        <v>200.7256927490234</v>
       </c>
       <c r="F57">
         <v>180.4082489013672</v>
       </c>
       <c r="G57">
-        <v>152.3540344238281</v>
+        <v>152.3540191650391</v>
       </c>
       <c r="H57">
         <v>1510.299682617188</v>
       </c>
       <c r="I57">
-        <v>29.85877799987793</v>
+        <v>29.8587760925293</v>
       </c>
       <c r="J57">
         <v>123.5299987792969</v>
       </c>
       <c r="K57">
-        <v>4.88873815536499</v>
+        <v>4.888737678527832</v>
       </c>
       <c r="L57">
         <v>159.1143035888672</v>
@@ -4817,7 +4817,7 @@
         <v>38.45000076293945</v>
       </c>
       <c r="P57">
-        <v>56.75399780273438</v>
+        <v>56.75399398803711</v>
       </c>
       <c r="Q57">
         <v>195.6665649414062</v>
@@ -4832,13 +4832,13 @@
         <v>4.840000152587891</v>
       </c>
       <c r="U57">
-        <v>141.9122161865234</v>
+        <v>141.9122009277344</v>
       </c>
       <c r="V57">
         <v>31.47393798828125</v>
       </c>
       <c r="W57">
-        <v>88.69339752197266</v>
+        <v>88.69338989257812</v>
       </c>
       <c r="X57">
         <v>29.39999961853027</v>
@@ -4852,13 +4852,13 @@
         <v>44557</v>
       </c>
       <c r="B58">
-        <v>149.0616455078125</v>
+        <v>149.0616302490234</v>
       </c>
       <c r="C58">
-        <v>10.45614051818848</v>
+        <v>10.45614147186279</v>
       </c>
       <c r="D58">
-        <v>7.085106372833252</v>
+        <v>7.08510684967041</v>
       </c>
       <c r="E58">
         <v>201.3332977294922</v>
@@ -4867,10 +4867,10 @@
         <v>185.9893341064453</v>
       </c>
       <c r="G58">
-        <v>155.6656799316406</v>
+        <v>155.6656494140625</v>
       </c>
       <c r="H58">
-        <v>1515.727172851562</v>
+        <v>1515.72705078125</v>
       </c>
       <c r="I58">
         <v>29.61720085144043</v>
@@ -4879,13 +4879,13 @@
         <v>128.2200012207031</v>
       </c>
       <c r="K58">
-        <v>5.403341293334961</v>
+        <v>5.403341770172119</v>
       </c>
       <c r="L58">
-        <v>161.7811889648438</v>
+        <v>161.7811737060547</v>
       </c>
       <c r="M58">
-        <v>349.4081115722656</v>
+        <v>349.4081420898438</v>
       </c>
       <c r="N58">
         <v>4803.54248046875</v>
@@ -4894,7 +4894,7 @@
         <v>37.77999877929688</v>
       </c>
       <c r="P58">
-        <v>56.912109375</v>
+        <v>56.91210556030273</v>
       </c>
       <c r="Q58">
         <v>199.6597595214844</v>
@@ -4909,19 +4909,19 @@
         <v>4.28000020980835</v>
       </c>
       <c r="U58">
-        <v>144.2361602783203</v>
+        <v>144.2361450195312</v>
       </c>
       <c r="V58">
         <v>31.17249870300293</v>
       </c>
       <c r="W58">
-        <v>90.92430114746094</v>
+        <v>90.92430877685547</v>
       </c>
       <c r="X58">
         <v>28.22999954223633</v>
       </c>
       <c r="Y58">
-        <v>19.8019962310791</v>
+        <v>19.80199432373047</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -4938,16 +4938,16 @@
         <v>7.23399019241333</v>
       </c>
       <c r="E59">
-        <v>206.1507263183594</v>
+        <v>206.1507110595703</v>
       </c>
       <c r="F59">
         <v>197.47705078125</v>
       </c>
       <c r="G59">
-        <v>154.8662719726562</v>
+        <v>154.8662872314453</v>
       </c>
       <c r="H59">
-        <v>1427.901977539062</v>
+        <v>1427.901733398438</v>
       </c>
       <c r="I59">
         <v>30.83474349975586</v>
@@ -4965,7 +4965,7 @@
         <v>315.6082458496094</v>
       </c>
       <c r="N59">
-        <v>4609.12939453125</v>
+        <v>4609.1298828125</v>
       </c>
       <c r="O59">
         <v>32.90999984741211</v>
@@ -4977,7 +4977,7 @@
         <v>181.9399566650391</v>
       </c>
       <c r="R59">
-        <v>154.2867889404297</v>
+        <v>154.2867736816406</v>
       </c>
       <c r="S59">
         <v>19.3799991607666</v>
@@ -4992,7 +4992,7 @@
         <v>32.2275390625</v>
       </c>
       <c r="W59">
-        <v>93.87582397460938</v>
+        <v>93.87580871582031</v>
       </c>
       <c r="X59">
         <v>24.95999908447266</v>
@@ -5006,10 +5006,10 @@
         <v>44571</v>
       </c>
       <c r="B60">
-        <v>149.51953125</v>
+        <v>149.5195007324219</v>
       </c>
       <c r="C60">
-        <v>11.54770660400391</v>
+        <v>11.54770755767822</v>
       </c>
       <c r="D60">
         <v>7.20771598815918</v>
@@ -5021,22 +5021,22 @@
         <v>211.7552947998047</v>
       </c>
       <c r="G60">
-        <v>152.0780639648438</v>
+        <v>152.0780487060547</v>
       </c>
       <c r="H60">
-        <v>1281.36181640625</v>
+        <v>1281.361694335938</v>
       </c>
       <c r="I60">
-        <v>30.39024353027344</v>
+        <v>30.39024543762207</v>
       </c>
       <c r="J60">
         <v>122.5400009155273</v>
       </c>
       <c r="K60">
-        <v>4.964974880218506</v>
+        <v>4.964975357055664</v>
       </c>
       <c r="L60">
-        <v>158.7265625</v>
+        <v>158.7265472412109</v>
       </c>
       <c r="M60">
         <v>296.97314453125</v>
@@ -5048,7 +5048,7 @@
         <v>28.60000038146973</v>
       </c>
       <c r="P60">
-        <v>66.84545135498047</v>
+        <v>66.845458984375</v>
       </c>
       <c r="Q60">
         <v>183.2876739501953</v>
@@ -5086,7 +5086,7 @@
         <v>137.3886260986328</v>
       </c>
       <c r="C61">
-        <v>11.08477210998535</v>
+        <v>11.08477306365967</v>
       </c>
       <c r="D61">
         <v>6.883676052093506</v>
@@ -5098,10 +5098,10 @@
         <v>200.5466461181641</v>
       </c>
       <c r="G61">
-        <v>154.7520904541016</v>
+        <v>154.7521057128906</v>
       </c>
       <c r="H61">
-        <v>1345.997314453125</v>
+        <v>1345.997192382812</v>
       </c>
       <c r="I61">
         <v>28.20639801025391</v>
@@ -5125,7 +5125,7 @@
         <v>23.70499992370605</v>
       </c>
       <c r="P61">
-        <v>67.12448120117188</v>
+        <v>67.12447357177734</v>
       </c>
       <c r="Q61">
         <v>175.8503265380859</v>
@@ -5146,7 +5146,7 @@
         <v>31.34981918334961</v>
       </c>
       <c r="W61">
-        <v>89.16721343994141</v>
+        <v>89.16722106933594</v>
       </c>
       <c r="X61">
         <v>21.05999946594238</v>
@@ -5160,7 +5160,7 @@
         <v>44585</v>
       </c>
       <c r="B62">
-        <v>138.8375091552734</v>
+        <v>138.8375244140625</v>
       </c>
       <c r="C62">
         <v>11.14285373687744</v>
@@ -5181,19 +5181,19 @@
         <v>1278.4013671875</v>
       </c>
       <c r="I62">
-        <v>27.16279029846191</v>
+        <v>27.16279220581055</v>
       </c>
       <c r="J62">
         <v>96.51000213623047</v>
       </c>
       <c r="K62">
-        <v>4.907797336578369</v>
+        <v>4.907796859741211</v>
       </c>
       <c r="L62">
         <v>162.4620666503906</v>
       </c>
       <c r="M62">
-        <v>303.7236022949219</v>
+        <v>303.7236328125</v>
       </c>
       <c r="N62">
         <v>4129.65625</v>
@@ -5202,7 +5202,7 @@
         <v>26.31999969482422</v>
       </c>
       <c r="P62">
-        <v>70.01704406738281</v>
+        <v>70.01705932617188</v>
       </c>
       <c r="Q62">
         <v>167.8140411376953</v>
@@ -5223,13 +5223,13 @@
         <v>30.87105751037598</v>
       </c>
       <c r="W62">
-        <v>86.74875640869141</v>
+        <v>86.74874877929688</v>
       </c>
       <c r="X62">
         <v>18.76000022888184</v>
       </c>
       <c r="Y62">
-        <v>17.31016540527344</v>
+        <v>17.31016731262207</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5246,16 +5246,16 @@
         <v>6.9800124168396</v>
       </c>
       <c r="E63">
-        <v>218.7541198730469</v>
+        <v>218.7541046142578</v>
       </c>
       <c r="F63">
         <v>242.7767639160156</v>
       </c>
       <c r="G63">
-        <v>154.5447845458984</v>
+        <v>154.5448150634766</v>
       </c>
       <c r="H63">
-        <v>1292.7099609375</v>
+        <v>1292.710083007812</v>
       </c>
       <c r="I63">
         <v>27.08548736572266</v>
@@ -5267,19 +5267,19 @@
         <v>4.955445289611816</v>
       </c>
       <c r="L63">
-        <v>162.3107757568359</v>
+        <v>162.3107604980469</v>
       </c>
       <c r="M63">
         <v>307.3365173339844</v>
       </c>
       <c r="N63">
-        <v>4260.1953125</v>
+        <v>4260.19482421875</v>
       </c>
       <c r="O63">
         <v>28.70999908447266</v>
       </c>
       <c r="P63">
-        <v>75.71848297119141</v>
+        <v>75.71849822998047</v>
       </c>
       <c r="Q63">
         <v>166.01708984375</v>
@@ -5300,13 +5300,13 @@
         <v>29.13334274291992</v>
       </c>
       <c r="W63">
-        <v>86.80799865722656</v>
+        <v>86.80799102783203</v>
       </c>
       <c r="X63">
         <v>21.43000030517578</v>
       </c>
       <c r="Y63">
-        <v>18.15340614318848</v>
+        <v>18.15340805053711</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5317,25 +5317,25 @@
         <v>145.7599945068359</v>
       </c>
       <c r="C64">
-        <v>11.45033645629883</v>
+        <v>11.45033740997314</v>
       </c>
       <c r="D64">
         <v>7.198959350585938</v>
       </c>
       <c r="E64">
-        <v>221.3407745361328</v>
+        <v>221.3407592773438</v>
       </c>
       <c r="F64">
         <v>233.9400787353516</v>
       </c>
       <c r="G64">
-        <v>149.5313720703125</v>
+        <v>149.5314025878906</v>
       </c>
       <c r="H64">
         <v>1186.135498046875</v>
       </c>
       <c r="I64">
-        <v>27.36571502685547</v>
+        <v>27.36571311950684</v>
       </c>
       <c r="J64">
         <v>98.19999694824219</v>
@@ -5344,7 +5344,7 @@
         <v>4.926856517791748</v>
       </c>
       <c r="L64">
-        <v>158.6036376953125</v>
+        <v>158.6036224365234</v>
       </c>
       <c r="M64">
         <v>311.3772888183594</v>
@@ -5356,7 +5356,7 @@
         <v>32.06000137329102</v>
       </c>
       <c r="P64">
-        <v>74.60238647460938</v>
+        <v>74.60239410400391</v>
       </c>
       <c r="Q64">
         <v>166.566162109375</v>
@@ -5391,28 +5391,28 @@
         <v>44606</v>
       </c>
       <c r="B65">
-        <v>144.0743408203125</v>
+        <v>144.0743255615234</v>
       </c>
       <c r="C65">
-        <v>10.77045726776123</v>
+        <v>10.77045631408691</v>
       </c>
       <c r="D65">
-        <v>7.38287353515625</v>
+        <v>7.382874011993408</v>
       </c>
       <c r="E65">
-        <v>225.6460723876953</v>
+        <v>225.6460571289062</v>
       </c>
       <c r="F65">
         <v>221.6152038574219</v>
       </c>
       <c r="G65">
-        <v>152.9852600097656</v>
+        <v>152.9852905273438</v>
       </c>
       <c r="H65">
-        <v>1187.1220703125</v>
+        <v>1187.122192382812</v>
       </c>
       <c r="I65">
-        <v>26.71829032897949</v>
+        <v>26.71829223632812</v>
       </c>
       <c r="J65">
         <v>79.26000213623047</v>
@@ -5421,7 +5421,7 @@
         <v>5.050742626190186</v>
       </c>
       <c r="L65">
-        <v>154.4898071289062</v>
+        <v>154.4898376464844</v>
       </c>
       <c r="M65">
         <v>314.6099243164062</v>
@@ -5433,7 +5433,7 @@
         <v>29.56999969482422</v>
       </c>
       <c r="P65">
-        <v>72.74928283691406</v>
+        <v>72.74929046630859</v>
       </c>
       <c r="Q65">
         <v>164.0704193115234</v>
@@ -5454,13 +5454,13 @@
         <v>29.15994071960449</v>
       </c>
       <c r="W65">
-        <v>95.61317443847656</v>
+        <v>95.6131591796875</v>
       </c>
       <c r="X65">
         <v>22.06999969482422</v>
       </c>
       <c r="Y65">
-        <v>18.07761192321777</v>
+        <v>18.07761001586914</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5486,7 +5486,7 @@
         <v>151.3970642089844</v>
       </c>
       <c r="H66">
-        <v>1213.765869140625</v>
+        <v>1213.765991210938</v>
       </c>
       <c r="I66">
         <v>24.44747734069824</v>
@@ -5504,13 +5504,13 @@
         <v>319.88671875</v>
       </c>
       <c r="N66">
-        <v>4088.5419921875</v>
+        <v>4088.54248046875</v>
       </c>
       <c r="O66">
         <v>28.19000053405762</v>
       </c>
       <c r="P66">
-        <v>73.20067596435547</v>
+        <v>73.20066833496094</v>
       </c>
       <c r="Q66">
         <v>188.6285552978516</v>
@@ -5531,7 +5531,7 @@
         <v>28.51272964477539</v>
       </c>
       <c r="W66">
-        <v>93.16507720947266</v>
+        <v>93.16508483886719</v>
       </c>
       <c r="X66">
         <v>22.59000015258789</v>
@@ -5545,7 +5545,7 @@
         <v>44620</v>
       </c>
       <c r="B67">
-        <v>127.2748031616211</v>
+        <v>127.2748413085938</v>
       </c>
       <c r="C67">
         <v>7.601670742034912</v>
@@ -5560,7 +5560,7 @@
         <v>195.4771575927734</v>
       </c>
       <c r="G67">
-        <v>148.4311218261719</v>
+        <v>148.4311370849609</v>
       </c>
       <c r="H67">
         <v>1147.567993164062</v>
@@ -5578,7 +5578,7 @@
         <v>161.3063659667969</v>
       </c>
       <c r="M67">
-        <v>333.2450561523438</v>
+        <v>333.2450256347656</v>
       </c>
       <c r="N67">
         <v>3747.927734375</v>
@@ -5593,7 +5593,7 @@
         <v>195.3171539306641</v>
       </c>
       <c r="R67">
-        <v>167.1044921875</v>
+        <v>167.1044769287109</v>
       </c>
       <c r="S67">
         <v>16.81999969482422</v>
@@ -5608,13 +5608,13 @@
         <v>23.84926605224609</v>
       </c>
       <c r="W67">
-        <v>90.5299072265625</v>
+        <v>90.52989959716797</v>
       </c>
       <c r="X67">
         <v>23.06999969482422</v>
       </c>
       <c r="Y67">
-        <v>20.15116500854492</v>
+        <v>20.15116310119629</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -5622,7 +5622,7 @@
         <v>44627</v>
       </c>
       <c r="B68">
-        <v>122.0569458007812</v>
+        <v>122.0569305419922</v>
       </c>
       <c r="C68">
         <v>7.444511890411377</v>
@@ -5631,19 +5631,19 @@
         <v>6.90994930267334</v>
       </c>
       <c r="E68">
-        <v>224.0902862548828</v>
+        <v>224.09033203125</v>
       </c>
       <c r="F68">
         <v>202.7325592041016</v>
       </c>
       <c r="G68">
-        <v>137.0265960693359</v>
+        <v>137.0265808105469</v>
       </c>
       <c r="H68">
         <v>1112.463500976562</v>
       </c>
       <c r="I68">
-        <v>24.06095695495605</v>
+        <v>24.06095504760742</v>
       </c>
       <c r="J68">
         <v>70.13999938964844</v>
@@ -5652,10 +5652,10 @@
         <v>4.580206871032715</v>
       </c>
       <c r="L68">
-        <v>161.1826324462891</v>
+        <v>161.1826477050781</v>
       </c>
       <c r="M68">
-        <v>329.2517395019531</v>
+        <v>329.2517700195312</v>
       </c>
       <c r="N68">
         <v>3891.77978515625</v>
@@ -5664,13 +5664,13 @@
         <v>32.79000091552734</v>
       </c>
       <c r="P68">
-        <v>79.85871124267578</v>
+        <v>79.85870361328125</v>
       </c>
       <c r="Q68">
         <v>213.8356018066406</v>
       </c>
       <c r="R68">
-        <v>151.2010498046875</v>
+        <v>151.2010650634766</v>
       </c>
       <c r="S68">
         <v>20.5</v>
@@ -5685,7 +5685,7 @@
         <v>25.59584999084473</v>
       </c>
       <c r="W68">
-        <v>88.03825378417969</v>
+        <v>88.03826904296875</v>
       </c>
       <c r="X68">
         <v>24.44000053405762</v>
@@ -5699,16 +5699,16 @@
         <v>44634</v>
       </c>
       <c r="B69">
-        <v>132.6726379394531</v>
+        <v>132.6726531982422</v>
       </c>
       <c r="C69">
-        <v>8.122685432434082</v>
+        <v>8.122684478759766</v>
       </c>
       <c r="D69">
-        <v>7.365358352661133</v>
+        <v>7.365357875823975</v>
       </c>
       <c r="E69">
-        <v>230.1885986328125</v>
+        <v>230.1885833740234</v>
       </c>
       <c r="F69">
         <v>210.2670135498047</v>
@@ -5741,7 +5741,7 @@
         <v>33.61000061035156</v>
       </c>
       <c r="P69">
-        <v>73.981201171875</v>
+        <v>73.98121643066406</v>
       </c>
       <c r="Q69">
         <v>208.0454711914062</v>
@@ -5762,7 +5762,7 @@
         <v>27.2537727355957</v>
       </c>
       <c r="W69">
-        <v>95.07816314697266</v>
+        <v>95.07815551757812</v>
       </c>
       <c r="X69">
         <v>26.14999961853027</v>
@@ -5782,10 +5782,10 @@
         <v>8.003108024597168</v>
       </c>
       <c r="D70">
-        <v>7.365358352661133</v>
+        <v>7.365357875823975</v>
       </c>
       <c r="E70">
-        <v>230.2413024902344</v>
+        <v>230.2413177490234</v>
       </c>
       <c r="F70">
         <v>209.5693817138672</v>
@@ -5803,13 +5803,13 @@
         <v>78.04000091552734</v>
       </c>
       <c r="K70">
-        <v>4.647704601287842</v>
+        <v>4.647705078125</v>
       </c>
       <c r="L70">
-        <v>168.3875427246094</v>
+        <v>168.3875274658203</v>
       </c>
       <c r="M70">
-        <v>341.1364440917969</v>
+        <v>341.1364135742188</v>
       </c>
       <c r="N70">
         <v>4269.49462890625</v>
@@ -5818,7 +5818,7 @@
         <v>35.36000061035156</v>
       </c>
       <c r="P70">
-        <v>80.12203216552734</v>
+        <v>80.12201690673828</v>
       </c>
       <c r="Q70">
         <v>190.1759185791016</v>
@@ -5853,43 +5853,43 @@
         <v>44648</v>
       </c>
       <c r="B71">
-        <v>128.1365814208984</v>
+        <v>128.1365966796875</v>
       </c>
       <c r="C71">
-        <v>8.208950996398926</v>
+        <v>8.208949089050293</v>
       </c>
       <c r="D71">
         <v>7.444179058074951</v>
       </c>
       <c r="E71">
-        <v>234.6173095703125</v>
+        <v>234.6173400878906</v>
       </c>
       <c r="F71">
         <v>223.1965026855469</v>
       </c>
       <c r="G71">
-        <v>148.3832702636719</v>
+        <v>148.38330078125</v>
       </c>
       <c r="H71">
         <v>1256.342163085938</v>
       </c>
       <c r="I71">
-        <v>25.12389183044434</v>
+        <v>25.1238899230957</v>
       </c>
       <c r="J71">
         <v>75.73000335693359</v>
       </c>
       <c r="K71">
-        <v>4.647704601287842</v>
+        <v>4.647705078125</v>
       </c>
       <c r="L71">
         <v>169.5962982177734</v>
       </c>
       <c r="M71">
-        <v>368.011962890625</v>
+        <v>368.0119934082031</v>
       </c>
       <c r="N71">
-        <v>4189.22314453125</v>
+        <v>4189.2236328125</v>
       </c>
       <c r="O71">
         <v>43.90999984741211</v>
@@ -5901,7 +5901,7 @@
         <v>209.6926727294922</v>
       </c>
       <c r="R71">
-        <v>177.8649597167969</v>
+        <v>177.8649749755859</v>
       </c>
       <c r="S71">
         <v>21.40999984741211</v>
@@ -5936,7 +5936,7 @@
         <v>8.132080078125</v>
       </c>
       <c r="D72">
-        <v>7.356600284576416</v>
+        <v>7.356599807739258</v>
       </c>
       <c r="E72">
         <v>235.4960632324219</v>
@@ -5945,7 +5945,7 @@
         <v>231.010009765625</v>
       </c>
       <c r="G72">
-        <v>153.1766510009766</v>
+        <v>153.1766357421875</v>
       </c>
       <c r="H72">
         <v>1279.580322265625</v>
@@ -5960,10 +5960,10 @@
         <v>4.840555667877197</v>
       </c>
       <c r="L72">
-        <v>173.3367462158203</v>
+        <v>173.3367614746094</v>
       </c>
       <c r="M72">
-        <v>399.7012329101562</v>
+        <v>399.7012634277344</v>
       </c>
       <c r="N72">
         <v>4336.94189453125</v>
@@ -6010,25 +6010,25 @@
         <v>120.3190765380859</v>
       </c>
       <c r="C73">
-        <v>8.069727897644043</v>
+        <v>8.069728851318359</v>
       </c>
       <c r="D73">
-        <v>6.997527599334717</v>
+        <v>6.997528076171875</v>
       </c>
       <c r="E73">
-        <v>228.46630859375</v>
+        <v>228.4662933349609</v>
       </c>
       <c r="F73">
         <v>225.7079925537109</v>
       </c>
       <c r="G73">
-        <v>151.7128143310547</v>
+        <v>151.7127990722656</v>
       </c>
       <c r="H73">
         <v>1269.197387695312</v>
       </c>
       <c r="I73">
-        <v>25.00793266296387</v>
+        <v>25.0079345703125</v>
       </c>
       <c r="J73">
         <v>72.31999969482422</v>
@@ -6037,7 +6037,7 @@
         <v>4.946623802185059</v>
       </c>
       <c r="L73">
-        <v>171.2238311767578</v>
+        <v>171.2238159179688</v>
       </c>
       <c r="M73">
         <v>392.4815368652344</v>
@@ -6049,13 +6049,13 @@
         <v>36.86000061035156</v>
       </c>
       <c r="P73">
-        <v>82.59528350830078</v>
+        <v>82.59526824951172</v>
       </c>
       <c r="Q73">
         <v>200.3500061035156</v>
       </c>
       <c r="R73">
-        <v>164.7308044433594</v>
+        <v>164.7308197021484</v>
       </c>
       <c r="S73">
         <v>20.39999961853027</v>
@@ -6084,10 +6084,10 @@
         <v>44669</v>
       </c>
       <c r="B74">
-        <v>120.9773406982422</v>
+        <v>120.9773254394531</v>
       </c>
       <c r="C74">
-        <v>8.220909118652344</v>
+        <v>8.220907211303711</v>
       </c>
       <c r="D74">
         <v>6.971254825592041</v>
@@ -6117,7 +6117,7 @@
         <v>172.7847290039062</v>
       </c>
       <c r="M74">
-        <v>371.3553771972656</v>
+        <v>371.3553466796875</v>
       </c>
       <c r="N74">
         <v>4104.3515625</v>
@@ -6147,7 +6147,7 @@
         <v>24.23215103149414</v>
       </c>
       <c r="W74">
-        <v>88.12723541259766</v>
+        <v>88.12725067138672</v>
       </c>
       <c r="X74">
         <v>22.04000091552734</v>
@@ -6164,13 +6164,13 @@
         <v>113.870002746582</v>
       </c>
       <c r="C75">
-        <v>7.772495746612549</v>
+        <v>7.772494792938232</v>
       </c>
       <c r="D75">
         <v>7.120138168334961</v>
       </c>
       <c r="E75">
-        <v>224.0727386474609</v>
+        <v>224.0727233886719</v>
       </c>
       <c r="F75">
         <v>213.6156616210938</v>
@@ -6182,7 +6182,7 @@
         <v>1173.278198242188</v>
       </c>
       <c r="I75">
-        <v>24.35084915161133</v>
+        <v>24.3508472442627</v>
       </c>
       <c r="J75">
         <v>66.43000030517578</v>
@@ -6191,7 +6191,7 @@
         <v>4.869483470916748</v>
       </c>
       <c r="L75">
-        <v>171.7568054199219</v>
+        <v>171.7568359375</v>
       </c>
       <c r="M75">
         <v>393.5959777832031</v>
@@ -6203,7 +6203,7 @@
         <v>31.75</v>
       </c>
       <c r="P75">
-        <v>80.16903686523438</v>
+        <v>80.16904449462891</v>
       </c>
       <c r="Q75">
         <v>182.8200073242188</v>
@@ -6224,13 +6224,13 @@
         <v>24.69868278503418</v>
       </c>
       <c r="W75">
-        <v>88.89847564697266</v>
+        <v>88.89846801757812</v>
       </c>
       <c r="X75">
         <v>21.02000045776367</v>
       </c>
       <c r="Y75">
-        <v>19.71914863586426</v>
+        <v>19.71914672851562</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6241,7 +6241,7 @@
         <v>118.0294647216797</v>
       </c>
       <c r="C76">
-        <v>7.775223255157471</v>
+        <v>7.775222301483154</v>
       </c>
       <c r="D76">
         <v>6.743549823760986</v>
@@ -6259,7 +6259,7 @@
         <v>1035.007202148438</v>
       </c>
       <c r="I76">
-        <v>24.52478218078613</v>
+        <v>24.5247802734375</v>
       </c>
       <c r="J76">
         <v>60.86999893188477</v>
@@ -6268,7 +6268,7 @@
         <v>4.753772258758545</v>
       </c>
       <c r="L76">
-        <v>167.8640594482422</v>
+        <v>167.8640747070312</v>
       </c>
       <c r="M76">
         <v>378.5750732421875</v>
@@ -6280,7 +6280,7 @@
         <v>29.81999969482422</v>
       </c>
       <c r="P76">
-        <v>86.22522735595703</v>
+        <v>86.22521209716797</v>
       </c>
       <c r="Q76">
         <v>164.6199951171875</v>
@@ -6315,7 +6315,7 @@
         <v>44690</v>
       </c>
       <c r="B77">
-        <v>113.6124114990234</v>
+        <v>113.612419128418</v>
       </c>
       <c r="C77">
         <v>8.323830604553223</v>
@@ -6330,19 +6330,19 @@
         <v>179.8036499023438</v>
       </c>
       <c r="G77">
-        <v>147.8014373779297</v>
+        <v>147.8014221191406</v>
       </c>
       <c r="H77">
         <v>1062.819213867188</v>
       </c>
       <c r="I77">
-        <v>22.90139389038086</v>
+        <v>22.90139198303223</v>
       </c>
       <c r="J77">
         <v>58.34000015258789</v>
       </c>
       <c r="K77">
-        <v>4.77305793762207</v>
+        <v>4.773057460784912</v>
       </c>
       <c r="L77">
         <v>168.3209228515625</v>
@@ -6351,7 +6351,7 @@
         <v>362.9727172851562</v>
       </c>
       <c r="N77">
-        <v>3841.561279296875</v>
+        <v>3841.5615234375</v>
       </c>
       <c r="O77">
         <v>27.89999961853027</v>
@@ -6363,7 +6363,7 @@
         <v>148.1399993896484</v>
       </c>
       <c r="R77">
-        <v>159.9835052490234</v>
+        <v>159.9835205078125</v>
       </c>
       <c r="S77">
         <v>15.21000003814697</v>
@@ -6398,7 +6398,7 @@
         <v>8.638116836547852</v>
       </c>
       <c r="D78">
-        <v>6.751310348510742</v>
+        <v>6.7513108253479</v>
       </c>
       <c r="E78">
         <v>215.2855682373047</v>
@@ -6407,7 +6407,7 @@
         <v>180.8268432617188</v>
       </c>
       <c r="G78">
-        <v>136.4195098876953</v>
+        <v>136.4194946289062</v>
       </c>
       <c r="H78">
         <v>1027.557495117188</v>
@@ -6422,10 +6422,10 @@
         <v>4.580206871032715</v>
       </c>
       <c r="L78">
-        <v>168.4446563720703</v>
+        <v>168.4446411132812</v>
       </c>
       <c r="M78">
-        <v>368.8841857910156</v>
+        <v>368.8841552734375</v>
       </c>
       <c r="N78">
         <v>4159.513671875</v>
@@ -6434,13 +6434,13 @@
         <v>31.64999961853027</v>
       </c>
       <c r="P78">
-        <v>87.26994323730469</v>
+        <v>87.26993560791016</v>
       </c>
       <c r="Q78">
         <v>156.6799926757812</v>
       </c>
       <c r="R78">
-        <v>159.8252868652344</v>
+        <v>159.8253021240234</v>
       </c>
       <c r="S78">
         <v>16.60000038146973</v>
@@ -6455,13 +6455,13 @@
         <v>25.14691925048828</v>
       </c>
       <c r="W78">
-        <v>85.98165893554688</v>
+        <v>85.98166656494141</v>
       </c>
       <c r="X78">
         <v>16.45000076293945</v>
       </c>
       <c r="Y78">
-        <v>17.37666130065918</v>
+        <v>17.37665939331055</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6469,22 +6469,22 @@
         <v>44704</v>
       </c>
       <c r="B79">
-        <v>125.2322082519531</v>
+        <v>125.2322235107422</v>
       </c>
       <c r="C79">
-        <v>9.354135513305664</v>
+        <v>9.354134559631348</v>
       </c>
       <c r="D79">
-        <v>6.814322948455811</v>
+        <v>6.814322471618652</v>
       </c>
       <c r="E79">
-        <v>219.2397918701172</v>
+        <v>219.2397613525391</v>
       </c>
       <c r="F79">
         <v>184.2220001220703</v>
       </c>
       <c r="G79">
-        <v>143.0870208740234</v>
+        <v>143.0870361328125</v>
       </c>
       <c r="H79">
         <v>1084.671630859375</v>
@@ -6505,19 +6505,19 @@
         <v>357.885009765625</v>
       </c>
       <c r="N79">
-        <v>4297.93212890625</v>
+        <v>4297.931640625</v>
       </c>
       <c r="O79">
         <v>26.45999908447266</v>
       </c>
       <c r="P79">
-        <v>92.71363067626953</v>
+        <v>92.713623046875</v>
       </c>
       <c r="Q79">
         <v>168.0599975585938</v>
       </c>
       <c r="R79">
-        <v>155.4736022949219</v>
+        <v>155.4736175537109</v>
       </c>
       <c r="S79">
         <v>18.19000053405762</v>
@@ -6532,7 +6532,7 @@
         <v>25.7964038848877</v>
       </c>
       <c r="W79">
-        <v>94.02374267578125</v>
+        <v>94.02375793457031</v>
       </c>
       <c r="X79">
         <v>19.05999946594238</v>
@@ -6546,16 +6546,16 @@
         <v>44711</v>
       </c>
       <c r="B80">
-        <v>124.1732635498047</v>
+        <v>124.1732559204102</v>
       </c>
       <c r="C80">
-        <v>9.504682540893555</v>
+        <v>9.504683494567871</v>
       </c>
       <c r="D80">
         <v>6.805320739746094</v>
       </c>
       <c r="E80">
-        <v>219.0200958251953</v>
+        <v>219.0201110839844</v>
       </c>
       <c r="F80">
         <v>196.36083984375</v>
@@ -6576,19 +6576,19 @@
         <v>4.570563793182373</v>
       </c>
       <c r="L80">
-        <v>168.9906463623047</v>
+        <v>168.9906311035156</v>
       </c>
       <c r="M80">
         <v>377.5575256347656</v>
       </c>
       <c r="N80">
-        <v>4248.49658203125</v>
+        <v>4248.4970703125</v>
       </c>
       <c r="O80">
         <v>25.53000068664551</v>
       </c>
       <c r="P80">
-        <v>94.138671875</v>
+        <v>94.13867950439453</v>
       </c>
       <c r="Q80">
         <v>174.5</v>
@@ -6623,7 +6623,7 @@
         <v>44718</v>
       </c>
       <c r="B81">
-        <v>114.0512619018555</v>
+        <v>114.0512542724609</v>
       </c>
       <c r="C81">
         <v>8.951146125793457</v>
@@ -6632,13 +6632,13 @@
         <v>6.130189895629883</v>
       </c>
       <c r="E81">
-        <v>213.6319580078125</v>
+        <v>213.6319732666016</v>
       </c>
       <c r="F81">
         <v>193.4307708740234</v>
       </c>
       <c r="G81">
-        <v>136.5734710693359</v>
+        <v>136.5734558105469</v>
       </c>
       <c r="H81">
         <v>1041.960205078125</v>
@@ -6653,13 +6653,13 @@
         <v>4.483781814575195</v>
       </c>
       <c r="L81">
-        <v>165.2836303710938</v>
+        <v>165.2836151123047</v>
       </c>
       <c r="M81">
-        <v>380.6586303710938</v>
+        <v>380.6585998535156</v>
       </c>
       <c r="N81">
-        <v>4259.80322265625</v>
+        <v>4259.802734375</v>
       </c>
       <c r="O81">
         <v>24.35000038146973</v>
@@ -6686,13 +6686,13 @@
         <v>26.02509498596191</v>
       </c>
       <c r="W81">
-        <v>89.38842010498047</v>
+        <v>89.38843536376953</v>
       </c>
       <c r="X81">
         <v>15.96000003814697</v>
       </c>
       <c r="Y81">
-        <v>16.81023788452148</v>
+        <v>16.81023979187012</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -6703,13 +6703,13 @@
         <v>107.8311538696289</v>
       </c>
       <c r="C82">
-        <v>8.882297515869141</v>
+        <v>8.882298469543457</v>
       </c>
       <c r="D82">
-        <v>5.833131790161133</v>
+        <v>5.833132266998291</v>
       </c>
       <c r="E82">
-        <v>214.0770263671875</v>
+        <v>214.0770111083984</v>
       </c>
       <c r="F82">
         <v>168.2229156494141</v>
@@ -6730,13 +6730,13 @@
         <v>4.194505214691162</v>
       </c>
       <c r="L82">
-        <v>162.3237457275391</v>
+        <v>162.32373046875</v>
       </c>
       <c r="M82">
-        <v>362.0036315917969</v>
+        <v>362.0036010742188</v>
       </c>
       <c r="N82">
-        <v>4059.272705078125</v>
+        <v>4059.2724609375</v>
       </c>
       <c r="O82">
         <v>22.69000053405762</v>
@@ -6769,7 +6769,7 @@
         <v>15.82999992370605</v>
       </c>
       <c r="Y82">
-        <v>15.04376983642578</v>
+        <v>15.0437707901001</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -6777,7 +6777,7 @@
         <v>44732</v>
       </c>
       <c r="B83">
-        <v>111.9238357543945</v>
+        <v>111.923828125</v>
       </c>
       <c r="C83">
         <v>8.976849555969238</v>
@@ -6786,7 +6786,7 @@
         <v>6.076179504394531</v>
       </c>
       <c r="E83">
-        <v>209.6263427734375</v>
+        <v>209.6263732910156</v>
       </c>
       <c r="F83">
         <v>178.8158416748047</v>
@@ -6804,10 +6804,10 @@
         <v>53.4900016784668</v>
       </c>
       <c r="K83">
-        <v>3.712378263473511</v>
+        <v>3.712378025054932</v>
       </c>
       <c r="L83">
-        <v>174.6134338378906</v>
+        <v>174.6134490966797</v>
       </c>
       <c r="M83">
         <v>380.997802734375</v>
@@ -6846,7 +6846,7 @@
         <v>18.22999954223633</v>
       </c>
       <c r="Y83">
-        <v>15.00536918640137</v>
+        <v>15.00536823272705</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -6854,22 +6854,22 @@
         <v>44739</v>
       </c>
       <c r="B84">
-        <v>108.8042373657227</v>
+        <v>108.8042449951172</v>
       </c>
       <c r="C84">
-        <v>8.661984443664551</v>
+        <v>8.661985397338867</v>
       </c>
       <c r="D84">
         <v>6.03117036819458</v>
       </c>
       <c r="E84">
-        <v>215.8217010498047</v>
+        <v>215.8216857910156</v>
       </c>
       <c r="F84">
         <v>177.8058624267578</v>
       </c>
       <c r="G84">
-        <v>140.5758972167969</v>
+        <v>140.5758819580078</v>
       </c>
       <c r="H84">
         <v>1058.349487304688</v>
@@ -6887,10 +6887,10 @@
         <v>171.9600982666016</v>
       </c>
       <c r="M84">
-        <v>380.174072265625</v>
+        <v>380.1741027832031</v>
       </c>
       <c r="N84">
-        <v>4293.4287109375</v>
+        <v>4293.42919921875</v>
       </c>
       <c r="O84">
         <v>40.63999938964844</v>
@@ -6902,7 +6902,7 @@
         <v>153.9799957275391</v>
       </c>
       <c r="R84">
-        <v>168.8451232910156</v>
+        <v>168.8451385498047</v>
       </c>
       <c r="S84">
         <v>15.64999961853027</v>
@@ -6917,13 +6917,13 @@
         <v>21.86403846740723</v>
       </c>
       <c r="W84">
-        <v>82.30667877197266</v>
+        <v>82.30668640136719</v>
       </c>
       <c r="X84">
         <v>17.18000030517578</v>
       </c>
       <c r="Y84">
-        <v>15.1301736831665</v>
+        <v>15.13017463684082</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -6937,7 +6937,7 @@
         <v>8.650050163269043</v>
       </c>
       <c r="D85">
-        <v>6.220207214355469</v>
+        <v>6.220206737518311</v>
       </c>
       <c r="E85">
         <v>206.3506774902344</v>
@@ -6946,7 +6946,7 @@
         <v>203.0555419921875</v>
       </c>
       <c r="G85">
-        <v>139.5271759033203</v>
+        <v>139.5271911621094</v>
       </c>
       <c r="H85">
         <v>1062.819213867188</v>
@@ -6961,10 +6961,10 @@
         <v>3.577382802963257</v>
       </c>
       <c r="L85">
-        <v>170.7722930908203</v>
+        <v>170.7723236083984</v>
       </c>
       <c r="M85">
-        <v>387.1515197753906</v>
+        <v>387.1515502929688</v>
       </c>
       <c r="N85">
         <v>4313.30126953125</v>
@@ -7008,22 +7008,22 @@
         <v>44753</v>
       </c>
       <c r="B86">
-        <v>108.7080001831055</v>
+        <v>108.7079925537109</v>
       </c>
       <c r="C86">
         <v>7.981766700744629</v>
       </c>
       <c r="D86">
-        <v>6.220207214355469</v>
+        <v>6.220206737518311</v>
       </c>
       <c r="E86">
-        <v>218.0826110839844</v>
+        <v>218.0826263427734</v>
       </c>
       <c r="F86">
         <v>198.2460784912109</v>
       </c>
       <c r="G86">
-        <v>139.5752868652344</v>
+        <v>139.5753021240234</v>
       </c>
       <c r="H86">
         <v>1115.463500976562</v>
@@ -7035,16 +7035,16 @@
         <v>54.13999938964844</v>
       </c>
       <c r="K86">
-        <v>3.133825778961182</v>
+        <v>3.133826017379761</v>
       </c>
       <c r="L86">
-        <v>170.7244110107422</v>
+        <v>170.7244262695312</v>
       </c>
       <c r="M86">
-        <v>405.6126708984375</v>
+        <v>405.6127014160156</v>
       </c>
       <c r="N86">
-        <v>4450.1533203125</v>
+        <v>4450.15380859375</v>
       </c>
       <c r="O86">
         <v>43.68999862670898</v>
@@ -7071,7 +7071,7 @@
         <v>22.31474494934082</v>
       </c>
       <c r="W86">
-        <v>82.37601470947266</v>
+        <v>82.37602233886719</v>
       </c>
       <c r="X86">
         <v>15.46000003814697</v>
@@ -7094,7 +7094,7 @@
         <v>6.697299957275391</v>
       </c>
       <c r="E87">
-        <v>220.7530059814453</v>
+        <v>220.7530212402344</v>
       </c>
       <c r="F87">
         <v>220.3215179443359</v>
@@ -7127,13 +7127,13 @@
         <v>40.31000137329102</v>
       </c>
       <c r="P87">
-        <v>82.72879791259766</v>
+        <v>82.72879028320312</v>
       </c>
       <c r="Q87">
         <v>174.9600067138672</v>
       </c>
       <c r="R87">
-        <v>170.9023132324219</v>
+        <v>170.9022979736328</v>
       </c>
       <c r="S87">
         <v>16.44000053405762</v>
@@ -7162,10 +7162,10 @@
         <v>44767</v>
       </c>
       <c r="B88">
-        <v>111.027473449707</v>
+        <v>111.0274810791016</v>
       </c>
       <c r="C88">
-        <v>8.712472915649414</v>
+        <v>8.712471961975098</v>
       </c>
       <c r="D88">
         <v>6.769313335418701</v>
@@ -7195,7 +7195,7 @@
         <v>167.1706390380859</v>
       </c>
       <c r="M88">
-        <v>413.801513671875</v>
+        <v>413.8014831542969</v>
       </c>
       <c r="N88">
         <v>4058.611083984375</v>
@@ -7245,16 +7245,16 @@
         <v>8.684934616088867</v>
       </c>
       <c r="D89">
-        <v>6.814322948455811</v>
+        <v>6.814322471618652</v>
       </c>
       <c r="E89">
-        <v>218.0826110839844</v>
+        <v>218.0826263427734</v>
       </c>
       <c r="F89">
         <v>212.8187561035156</v>
       </c>
       <c r="G89">
-        <v>140.1424407958984</v>
+        <v>140.1424560546875</v>
       </c>
       <c r="H89">
         <v>1338.953491210938</v>
@@ -7266,7 +7266,7 @@
         <v>73.61000061035156</v>
       </c>
       <c r="K89">
-        <v>3.693093299865723</v>
+        <v>3.693093061447144</v>
       </c>
       <c r="L89">
         <v>163.9042663574219</v>
@@ -7316,7 +7316,7 @@
         <v>44781</v>
       </c>
       <c r="B90">
-        <v>117.5432281494141</v>
+        <v>117.5432205200195</v>
       </c>
       <c r="C90">
         <v>8.711554527282715</v>
@@ -7325,7 +7325,7 @@
         <v>6.832326412200928</v>
       </c>
       <c r="E90">
-        <v>226.9839630126953</v>
+        <v>226.9839477539062</v>
       </c>
       <c r="F90">
         <v>222.2453002929688</v>
@@ -7358,7 +7358,7 @@
         <v>46.27000045776367</v>
       </c>
       <c r="P90">
-        <v>89.30301666259766</v>
+        <v>89.30300903320312</v>
       </c>
       <c r="Q90">
         <v>192.8399963378906</v>
@@ -7379,7 +7379,7 @@
         <v>25.18200302124023</v>
       </c>
       <c r="W90">
-        <v>95.32123565673828</v>
+        <v>95.32124328613281</v>
       </c>
       <c r="X90">
         <v>29.54000091552734</v>
@@ -7402,13 +7402,13 @@
         <v>6.616283893585205</v>
       </c>
       <c r="E91">
-        <v>230.9895477294922</v>
+        <v>230.9895629882812</v>
       </c>
       <c r="F91">
         <v>221.8605346679688</v>
       </c>
       <c r="G91">
-        <v>144.9939880371094</v>
+        <v>144.9939727783203</v>
       </c>
       <c r="H91">
         <v>1387.128051757812</v>
@@ -7423,7 +7423,7 @@
         <v>3.615952968597412</v>
       </c>
       <c r="L91">
-        <v>162.1800689697266</v>
+        <v>162.1800537109375</v>
       </c>
       <c r="M91">
         <v>377.641845703125</v>
@@ -7435,7 +7435,7 @@
         <v>59.54999923706055</v>
       </c>
       <c r="P91">
-        <v>90.24744415283203</v>
+        <v>90.24745178222656</v>
       </c>
       <c r="Q91">
         <v>191.5599975585938</v>
@@ -7456,7 +7456,7 @@
         <v>23.84906387329102</v>
       </c>
       <c r="W91">
-        <v>92.81416320800781</v>
+        <v>92.81414031982422</v>
       </c>
       <c r="X91">
         <v>26.81999969482422</v>
@@ -7479,13 +7479,13 @@
         <v>6.346231937408447</v>
       </c>
       <c r="E92">
-        <v>228.7642059326172</v>
+        <v>228.7641906738281</v>
       </c>
       <c r="F92">
         <v>230.373291015625</v>
       </c>
       <c r="G92">
-        <v>137.7893371582031</v>
+        <v>137.7893218994141</v>
       </c>
       <c r="H92">
         <v>1327.53076171875</v>
@@ -7512,7 +7512,7 @@
         <v>67.12999725341797</v>
       </c>
       <c r="P92">
-        <v>93.88304901123047</v>
+        <v>93.883056640625</v>
       </c>
       <c r="Q92">
         <v>190.2400054931641</v>
@@ -7533,7 +7533,7 @@
         <v>22.7750415802002</v>
       </c>
       <c r="W92">
-        <v>89.71901702880859</v>
+        <v>89.71902465820312</v>
       </c>
       <c r="X92">
         <v>28.94000053405762</v>
@@ -7547,7 +7547,7 @@
         <v>44802</v>
       </c>
       <c r="B93">
-        <v>109.4394454956055</v>
+        <v>109.439453125</v>
       </c>
       <c r="C93">
         <v>8.253070831298828</v>
@@ -7556,13 +7556,13 @@
         <v>6.292221069335938</v>
       </c>
       <c r="E93">
-        <v>226.9839630126953</v>
+        <v>226.9839477539062</v>
       </c>
       <c r="F93">
         <v>234.5094299316406</v>
       </c>
       <c r="G93">
-        <v>132.8215789794922</v>
+        <v>132.8216094970703</v>
       </c>
       <c r="H93">
         <v>1262.470336914062</v>
@@ -7574,10 +7574,10 @@
         <v>71</v>
       </c>
       <c r="K93">
-        <v>3.770233392715454</v>
+        <v>3.770233631134033</v>
       </c>
       <c r="L93">
-        <v>156.9341583251953</v>
+        <v>156.9341430664062</v>
       </c>
       <c r="M93">
         <v>379.3561706542969</v>
@@ -7589,13 +7589,13 @@
         <v>62.9900016784668</v>
       </c>
       <c r="P93">
-        <v>91.69593048095703</v>
+        <v>91.6959228515625</v>
       </c>
       <c r="Q93">
         <v>180</v>
       </c>
       <c r="R93">
-        <v>185.9353637695312</v>
+        <v>185.9353790283203</v>
       </c>
       <c r="S93">
         <v>22.84000015258789</v>
@@ -7616,7 +7616,7 @@
         <v>25.8700008392334</v>
       </c>
       <c r="Y93">
-        <v>15.45658683776855</v>
+        <v>15.45658588409424</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -7624,7 +7624,7 @@
         <v>44809</v>
       </c>
       <c r="B94">
-        <v>114.6943817138672</v>
+        <v>114.6943893432617</v>
       </c>
       <c r="C94">
         <v>8.453110694885254</v>
@@ -7633,7 +7633,7 @@
         <v>6.121188163757324</v>
       </c>
       <c r="E94">
-        <v>222.6025085449219</v>
+        <v>222.6025238037109</v>
       </c>
       <c r="F94">
         <v>234.2689666748047</v>
@@ -7654,10 +7654,10 @@
         <v>3.703487396240234</v>
       </c>
       <c r="L94">
-        <v>159.7981872558594</v>
+        <v>159.7981719970703</v>
       </c>
       <c r="M94">
-        <v>391.7483215332031</v>
+        <v>391.748291015625</v>
       </c>
       <c r="N94">
         <v>4222.08251953125</v>
@@ -7734,7 +7734,7 @@
         <v>161.6207580566406</v>
       </c>
       <c r="M95">
-        <v>367.1109924316406</v>
+        <v>367.1109619140625</v>
       </c>
       <c r="N95">
         <v>4045.7119140625</v>
@@ -7749,7 +7749,7 @@
         <v>162.7799987792969</v>
       </c>
       <c r="R95">
-        <v>186.5683441162109</v>
+        <v>186.568359375</v>
       </c>
       <c r="S95">
         <v>26.64999961853027</v>
@@ -7778,7 +7778,7 @@
         <v>44823</v>
       </c>
       <c r="B96">
-        <v>105.0410919189453</v>
+        <v>105.0410766601562</v>
       </c>
       <c r="C96">
         <v>8.670912742614746</v>
@@ -7793,7 +7793,7 @@
         <v>220.3696136474609</v>
       </c>
       <c r="G96">
-        <v>131.2915649414062</v>
+        <v>131.2915496826172</v>
       </c>
       <c r="H96">
         <v>1163.638061523438</v>
@@ -7820,13 +7820,13 @@
         <v>50.2599983215332</v>
       </c>
       <c r="P96">
-        <v>82.25678253173828</v>
+        <v>82.25679016113281</v>
       </c>
       <c r="Q96">
         <v>149.8600006103516</v>
       </c>
       <c r="R96">
-        <v>186.7265625</v>
+        <v>186.7265777587891</v>
       </c>
       <c r="S96">
         <v>24.69000053405762</v>
@@ -7847,7 +7847,7 @@
         <v>22.6299991607666</v>
       </c>
       <c r="Y96">
-        <v>15.27592658996582</v>
+        <v>15.27592754364014</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -7864,7 +7864,7 @@
         <v>5.860137462615967</v>
       </c>
       <c r="E97">
-        <v>217.240234375</v>
+        <v>217.2402191162109</v>
       </c>
       <c r="F97">
         <v>220.0329437255859</v>
@@ -7882,7 +7882,7 @@
         <v>68.66000366210938</v>
       </c>
       <c r="K97">
-        <v>3.381020307540894</v>
+        <v>3.381020069122314</v>
       </c>
       <c r="L97">
         <v>157.5320129394531</v>
@@ -7897,7 +7897,7 @@
         <v>44.61999893188477</v>
       </c>
       <c r="P97">
-        <v>83.75323486328125</v>
+        <v>83.75322723388672</v>
       </c>
       <c r="Q97">
         <v>141.6199951171875</v>
@@ -7941,13 +7941,13 @@
         <v>6.184200286865234</v>
       </c>
       <c r="E98">
-        <v>217.0059051513672</v>
+        <v>217.0058898925781</v>
       </c>
       <c r="F98">
         <v>220.3215179443359</v>
       </c>
       <c r="G98">
-        <v>120.3393020629883</v>
+        <v>120.3392944335938</v>
       </c>
       <c r="H98">
         <v>1256.510620117188</v>
@@ -7959,10 +7959,10 @@
         <v>76.63999938964844</v>
       </c>
       <c r="K98">
-        <v>3.400563478469849</v>
+        <v>3.400563716888428</v>
       </c>
       <c r="L98">
-        <v>154.4847564697266</v>
+        <v>154.4847412109375</v>
       </c>
       <c r="M98">
         <v>389.5441589355469</v>
@@ -7974,7 +7974,7 @@
         <v>45.81999969482422</v>
       </c>
       <c r="P98">
-        <v>96.91432189941406</v>
+        <v>96.91431427001953</v>
       </c>
       <c r="Q98">
         <v>138.3800048828125</v>
@@ -8009,7 +8009,7 @@
         <v>44844</v>
       </c>
       <c r="B99">
-        <v>107.971549987793</v>
+        <v>107.9715423583984</v>
       </c>
       <c r="C99">
         <v>8.630716323852539</v>
@@ -8018,13 +8018,13 @@
         <v>6.958350658416748</v>
       </c>
       <c r="E99">
-        <v>216.7535705566406</v>
+        <v>216.7535552978516</v>
       </c>
       <c r="F99">
         <v>218.1091613769531</v>
       </c>
       <c r="G99">
-        <v>121.1236801147461</v>
+        <v>121.1236724853516</v>
       </c>
       <c r="H99">
         <v>1265.946899414062</v>
@@ -8039,7 +8039,7 @@
         <v>3.410335302352905</v>
       </c>
       <c r="L99">
-        <v>158.5927886962891</v>
+        <v>158.5927734375</v>
       </c>
       <c r="M99">
         <v>391.3074951171875</v>
@@ -8051,7 +8051,7 @@
         <v>48</v>
       </c>
       <c r="P99">
-        <v>95.14927673339844</v>
+        <v>95.14928436279297</v>
       </c>
       <c r="Q99">
         <v>140.8200073242188</v>
@@ -8078,7 +8078,7 @@
         <v>18.03000068664551</v>
       </c>
       <c r="Y99">
-        <v>15.86083793640137</v>
+        <v>15.86083984375</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8092,7 +8092,7 @@
         <v>9.048558235168457</v>
       </c>
       <c r="D100">
-        <v>6.760312557220459</v>
+        <v>6.760312080383301</v>
       </c>
       <c r="E100">
         <v>218.0963745117188</v>
@@ -8116,7 +8116,7 @@
         <v>3.048781156539917</v>
       </c>
       <c r="L100">
-        <v>162.691162109375</v>
+        <v>162.6911773681641</v>
       </c>
       <c r="M100">
         <v>382.2460632324219</v>
@@ -8163,7 +8163,7 @@
         <v>44858</v>
       </c>
       <c r="B101">
-        <v>122.4305419921875</v>
+        <v>122.4305572509766</v>
       </c>
       <c r="C101">
         <v>9.283185005187988</v>
@@ -8172,13 +8172,13 @@
         <v>6.607282161712646</v>
       </c>
       <c r="E101">
-        <v>220.7640075683594</v>
+        <v>220.7640228271484</v>
       </c>
       <c r="F101">
         <v>276.8807983398438</v>
       </c>
       <c r="G101">
-        <v>131.8722534179688</v>
+        <v>131.8722381591797</v>
       </c>
       <c r="H101">
         <v>1311.141479492188</v>
@@ -8190,7 +8190,7 @@
         <v>71.80999755859375</v>
       </c>
       <c r="K101">
-        <v>3.195357084274292</v>
+        <v>3.195357322692871</v>
       </c>
       <c r="L101">
         <v>168.6313781738281</v>
@@ -8226,13 +8226,13 @@
         <v>24.9422664642334</v>
       </c>
       <c r="W101">
-        <v>92.81416320800781</v>
+        <v>92.81414031982422</v>
       </c>
       <c r="X101">
         <v>16.09000015258789</v>
       </c>
       <c r="Y101">
-        <v>15.30517196655273</v>
+        <v>15.30517292022705</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8240,7 +8240,7 @@
         <v>44865</v>
       </c>
       <c r="B102">
-        <v>126.8973846435547</v>
+        <v>126.8973922729492</v>
       </c>
       <c r="C102">
         <v>10.22636604309082</v>
@@ -8249,13 +8249,13 @@
         <v>6.773392200469971</v>
       </c>
       <c r="E102">
-        <v>222.6295471191406</v>
+        <v>222.6295623779297</v>
       </c>
       <c r="F102">
         <v>285.7783203125</v>
       </c>
       <c r="G102">
-        <v>131.1115570068359</v>
+        <v>131.1115417480469</v>
       </c>
       <c r="H102">
         <v>1347.893188476562</v>
@@ -8282,7 +8282,7 @@
         <v>57.09000015258789</v>
       </c>
       <c r="P102">
-        <v>107.7347946166992</v>
+        <v>107.7348022460938</v>
       </c>
       <c r="Q102">
         <v>154.3600006103516</v>
@@ -8317,7 +8317,7 @@
         <v>44872</v>
       </c>
       <c r="B103">
-        <v>131.3836517333984</v>
+        <v>131.3836669921875</v>
       </c>
       <c r="C103">
         <v>10.36845111846924</v>
@@ -8326,7 +8326,7 @@
         <v>6.857014179229736</v>
       </c>
       <c r="E103">
-        <v>218.0873718261719</v>
+        <v>218.0873870849609</v>
       </c>
       <c r="F103">
         <v>292.8482360839844</v>
@@ -8359,7 +8359,7 @@
         <v>59.0099983215332</v>
       </c>
       <c r="P103">
-        <v>109.307991027832</v>
+        <v>109.3079986572266</v>
       </c>
       <c r="Q103">
         <v>182.6999969482422</v>
@@ -8394,7 +8394,7 @@
         <v>44879</v>
       </c>
       <c r="B104">
-        <v>129.9659271240234</v>
+        <v>129.9659118652344</v>
       </c>
       <c r="C104">
         <v>10.69188022613525</v>
@@ -8424,7 +8424,7 @@
         <v>3.253987550735474</v>
       </c>
       <c r="L104">
-        <v>169.9139556884766</v>
+        <v>169.9139251708984</v>
       </c>
       <c r="M104">
         <v>397.7239685058594</v>
@@ -8436,7 +8436,7 @@
         <v>56.16999816894531</v>
       </c>
       <c r="P104">
-        <v>107.5141830444336</v>
+        <v>107.5141754150391</v>
       </c>
       <c r="Q104">
         <v>173.2799987792969</v>
@@ -8463,7 +8463,7 @@
         <v>15.84000015258789</v>
       </c>
       <c r="Y104">
-        <v>16.2020378112793</v>
+        <v>16.20203590393066</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -8471,7 +8471,7 @@
         <v>44886</v>
       </c>
       <c r="B105">
-        <v>132.781982421875</v>
+        <v>132.7819976806641</v>
       </c>
       <c r="C105">
         <v>10.8732271194458</v>
@@ -8480,7 +8480,7 @@
         <v>7.024258613586426</v>
       </c>
       <c r="E105">
-        <v>219.8988189697266</v>
+        <v>219.8988342285156</v>
       </c>
       <c r="F105">
         <v>314.3946228027344</v>
@@ -8513,7 +8513,7 @@
         <v>56.81999969482422</v>
       </c>
       <c r="P105">
-        <v>109.4723892211914</v>
+        <v>109.4723815917969</v>
       </c>
       <c r="Q105">
         <v>178.5</v>
@@ -8563,7 +8563,7 @@
         <v>306.988037109375</v>
       </c>
       <c r="G106">
-        <v>146.8812255859375</v>
+        <v>146.8812103271484</v>
       </c>
       <c r="H106">
         <v>1510.2958984375</v>
@@ -8578,10 +8578,10 @@
         <v>3.556911468505859</v>
       </c>
       <c r="L106">
-        <v>173.6117248535156</v>
+        <v>173.6117401123047</v>
       </c>
       <c r="M106">
-        <v>439.3576049804688</v>
+        <v>439.3576354980469</v>
       </c>
       <c r="N106">
         <v>4475.4013671875</v>
@@ -8590,13 +8590,13 @@
         <v>76.90000152587891</v>
       </c>
       <c r="P106">
-        <v>106.2329788208008</v>
+        <v>106.2329864501953</v>
       </c>
       <c r="Q106">
         <v>184.1199951171875</v>
       </c>
       <c r="R106">
-        <v>197.4871215820312</v>
+        <v>197.4871063232422</v>
       </c>
       <c r="S106">
         <v>24.48999977111816</v>
@@ -8652,13 +8652,13 @@
         <v>94.76999664306641</v>
       </c>
       <c r="K107">
-        <v>3.537367582321167</v>
+        <v>3.537367820739746</v>
       </c>
       <c r="L107">
         <v>170.564208984375</v>
       </c>
       <c r="M107">
-        <v>451.4559020996094</v>
+        <v>451.4558715820312</v>
       </c>
       <c r="N107">
         <v>4372.9033203125</v>
@@ -8667,7 +8667,7 @@
         <v>74.86000061035156</v>
       </c>
       <c r="P107">
-        <v>100.1216430664062</v>
+        <v>100.1216354370117</v>
       </c>
       <c r="Q107">
         <v>203.3000030517578</v>
@@ -8694,7 +8694,7 @@
         <v>13.35999965667725</v>
       </c>
       <c r="Y107">
-        <v>17.76179695129395</v>
+        <v>17.76179885864258</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -8702,7 +8702,7 @@
         <v>44907</v>
       </c>
       <c r="B108">
-        <v>125.5476226806641</v>
+        <v>125.5476150512695</v>
       </c>
       <c r="C108">
         <v>10.5329704284668</v>
@@ -8729,7 +8729,7 @@
         <v>95.01000213623047</v>
       </c>
       <c r="K108">
-        <v>3.654628753662109</v>
+        <v>3.65462851524353</v>
       </c>
       <c r="L108">
         <v>170.4962768554688</v>
@@ -8765,7 +8765,7 @@
         <v>26.94647026062012</v>
       </c>
       <c r="W108">
-        <v>98.61211395263672</v>
+        <v>98.61210632324219</v>
       </c>
       <c r="X108">
         <v>14.02000045776367</v>
@@ -8779,7 +8779,7 @@
         <v>44914</v>
       </c>
       <c r="B109">
-        <v>127.4800262451172</v>
+        <v>127.4800338745117</v>
       </c>
       <c r="C109">
         <v>10.77601051330566</v>
@@ -8794,7 +8794,7 @@
         <v>280.4397888183594</v>
       </c>
       <c r="G109">
-        <v>148.8414459228516</v>
+        <v>148.8414611816406</v>
       </c>
       <c r="H109">
         <v>1433.316040039062</v>
@@ -8809,7 +8809,7 @@
         <v>3.693715572357178</v>
       </c>
       <c r="L109">
-        <v>172.2529602050781</v>
+        <v>172.2529449462891</v>
       </c>
       <c r="M109">
         <v>457.7254333496094</v>
@@ -8842,7 +8842,7 @@
         <v>27.79034423828125</v>
       </c>
       <c r="W109">
-        <v>99.84414672851562</v>
+        <v>99.84413909912109</v>
       </c>
       <c r="X109">
         <v>12.34000015258789</v>
@@ -8856,7 +8856,7 @@
         <v>44921</v>
       </c>
       <c r="B110">
-        <v>130.2184143066406</v>
+        <v>130.2183990478516</v>
       </c>
       <c r="C110">
         <v>10.64514255523682</v>
@@ -8886,7 +8886,7 @@
         <v>3.791433095932007</v>
       </c>
       <c r="L110">
-        <v>171.4473876953125</v>
+        <v>171.4474029541016</v>
       </c>
       <c r="M110">
         <v>459.4397583007812</v>
@@ -8898,13 +8898,13 @@
         <v>77.12999725341797</v>
       </c>
       <c r="P110">
-        <v>106.6584548950195</v>
+        <v>106.6584625244141</v>
       </c>
       <c r="Q110">
         <v>202.1000061035156</v>
       </c>
       <c r="R110">
-        <v>207.1399230957031</v>
+        <v>207.1399383544922</v>
       </c>
       <c r="S110">
         <v>18.03000068664551</v>
@@ -8919,13 +8919,13 @@
         <v>27.57937622070312</v>
       </c>
       <c r="W110">
-        <v>99.16851806640625</v>
+        <v>99.16850280761719</v>
       </c>
       <c r="X110">
         <v>12.36999988555908</v>
       </c>
       <c r="Y110">
-        <v>16.41650390625</v>
+        <v>16.41650581359863</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -8933,7 +8933,7 @@
         <v>44928</v>
       </c>
       <c r="B111">
-        <v>133.9472351074219</v>
+        <v>133.947265625</v>
       </c>
       <c r="C111">
         <v>11.51634693145752</v>
@@ -8942,7 +8942,7 @@
         <v>6.37386417388916</v>
       </c>
       <c r="E111">
-        <v>213.7205963134766</v>
+        <v>213.7206115722656</v>
       </c>
       <c r="F111">
         <v>308.238525390625</v>
@@ -8963,10 +8963,10 @@
         <v>3.928237199783325</v>
       </c>
       <c r="L111">
-        <v>174.9413909912109</v>
+        <v>174.9413757324219</v>
       </c>
       <c r="M111">
-        <v>473.8890991210938</v>
+        <v>473.8890686035156</v>
       </c>
       <c r="N111">
         <v>4238.603515625</v>
@@ -8975,7 +8975,7 @@
         <v>67.98999786376953</v>
       </c>
       <c r="P111">
-        <v>106.880859375</v>
+        <v>106.8808670043945</v>
       </c>
       <c r="Q111">
         <v>200.0500030517578</v>
@@ -8996,7 +8996,7 @@
         <v>29.23835754394531</v>
       </c>
       <c r="W111">
-        <v>100.8873977661133</v>
+        <v>100.8873901367188</v>
       </c>
       <c r="X111">
         <v>13.40999984741211</v>
@@ -9010,7 +9010,7 @@
         <v>44935</v>
       </c>
       <c r="B112">
-        <v>139.8962707519531</v>
+        <v>139.8962554931641</v>
       </c>
       <c r="C112">
         <v>11.81173324584961</v>
@@ -9019,13 +9019,13 @@
         <v>6.550400257110596</v>
       </c>
       <c r="E112">
-        <v>219.3550415039062</v>
+        <v>219.3550720214844</v>
       </c>
       <c r="F112">
         <v>312.2303771972656</v>
       </c>
       <c r="G112">
-        <v>147.14453125</v>
+        <v>147.1445465087891</v>
       </c>
       <c r="H112">
         <v>1639.920288085938</v>
@@ -9043,7 +9043,7 @@
         <v>168.3222351074219</v>
       </c>
       <c r="M112">
-        <v>458.7540283203125</v>
+        <v>458.7539978027344</v>
       </c>
       <c r="N112">
         <v>4286.87548828125</v>
@@ -9052,7 +9052,7 @@
         <v>67.30000305175781</v>
       </c>
       <c r="P112">
-        <v>109.4143600463867</v>
+        <v>109.4143676757812</v>
       </c>
       <c r="Q112">
         <v>214.3000030517578</v>
@@ -9102,7 +9102,7 @@
         <v>306.7956848144531</v>
       </c>
       <c r="G113">
-        <v>139.4303588867188</v>
+        <v>139.4303741455078</v>
       </c>
       <c r="H113">
         <v>1617.074584960938</v>
@@ -9114,10 +9114,10 @@
         <v>122.4000015258789</v>
       </c>
       <c r="K113">
-        <v>3.850063562393188</v>
+        <v>3.850063323974609</v>
       </c>
       <c r="L113">
-        <v>163.7703857421875</v>
+        <v>163.7703704833984</v>
       </c>
       <c r="M113">
         <v>473.1543884277344</v>
@@ -9164,7 +9164,7 @@
         <v>44949</v>
       </c>
       <c r="B114">
-        <v>137.2648468017578</v>
+        <v>137.2648620605469</v>
       </c>
       <c r="C114">
         <v>12.33316326141357</v>
@@ -9173,7 +9173,7 @@
         <v>6.522525787353516</v>
       </c>
       <c r="E114">
-        <v>216.0613555908203</v>
+        <v>216.0613708496094</v>
       </c>
       <c r="F114">
         <v>279.9107666015625</v>
@@ -9191,13 +9191,13 @@
         <v>121.3199996948242</v>
       </c>
       <c r="K114">
-        <v>3.869606971740723</v>
+        <v>3.869606733322144</v>
       </c>
       <c r="L114">
-        <v>163.2753753662109</v>
+        <v>163.275390625</v>
       </c>
       <c r="M114">
-        <v>464.2888488769531</v>
+        <v>464.2888793945312</v>
       </c>
       <c r="N114">
         <v>4280.525390625</v>
@@ -9206,13 +9206,13 @@
         <v>70.26999664306641</v>
       </c>
       <c r="P114">
-        <v>111.7931442260742</v>
+        <v>111.7931518554688</v>
       </c>
       <c r="Q114">
         <v>192.2599945068359</v>
       </c>
       <c r="R114">
-        <v>193.2145690917969</v>
+        <v>193.2145538330078</v>
       </c>
       <c r="S114">
         <v>16.96999931335449</v>
@@ -9227,13 +9227,13 @@
         <v>29.24794769287109</v>
       </c>
       <c r="W114">
-        <v>102.4671783447266</v>
+        <v>102.467170715332</v>
       </c>
       <c r="X114">
         <v>15.85999965667725</v>
       </c>
       <c r="Y114">
-        <v>18.95112037658691</v>
+        <v>18.95111846923828</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -9250,7 +9250,7 @@
         <v>6.680479049682617</v>
       </c>
       <c r="E115">
-        <v>215.552490234375</v>
+        <v>215.5525054931641</v>
       </c>
       <c r="F115">
         <v>285.201171875</v>
@@ -9274,7 +9274,7 @@
         <v>159.7619934082031</v>
       </c>
       <c r="M115">
-        <v>461.1540832519531</v>
+        <v>461.154052734375</v>
       </c>
       <c r="N115">
         <v>4324.53125</v>
@@ -9283,7 +9283,7 @@
         <v>68.69999694824219</v>
       </c>
       <c r="P115">
-        <v>108.224967956543</v>
+        <v>108.2249755859375</v>
       </c>
       <c r="Q115">
         <v>201.6999969482422</v>
@@ -9304,7 +9304,7 @@
         <v>29.18082046508789</v>
       </c>
       <c r="W115">
-        <v>104.8517456054688</v>
+        <v>104.8517532348633</v>
       </c>
       <c r="X115">
         <v>17.3799991607666</v>
@@ -9348,10 +9348,10 @@
         <v>3.420107126235962</v>
       </c>
       <c r="L116">
-        <v>157.3744354248047</v>
+        <v>157.3744506835938</v>
       </c>
       <c r="M116">
-        <v>474.3298950195312</v>
+        <v>474.3299255371094</v>
       </c>
       <c r="N116">
         <v>4464.685546875</v>
@@ -9360,7 +9360,7 @@
         <v>62.79000091552734</v>
       </c>
       <c r="P116">
-        <v>115.2356185913086</v>
+        <v>115.2356109619141</v>
       </c>
       <c r="Q116">
         <v>213.1000061035156</v>
@@ -9387,7 +9387,7 @@
         <v>15.35999965667725</v>
       </c>
       <c r="Y116">
-        <v>18.39545440673828</v>
+        <v>18.39545249938965</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -9395,7 +9395,7 @@
         <v>44970</v>
       </c>
       <c r="B117">
-        <v>139.1430511474609</v>
+        <v>139.14306640625</v>
       </c>
       <c r="C117">
         <v>12.43291187286377</v>
@@ -9410,7 +9410,7 @@
         <v>282.4597778320312</v>
       </c>
       <c r="G117">
-        <v>137.4004516601562</v>
+        <v>137.4004669189453</v>
       </c>
       <c r="H117">
         <v>1735.27587890625</v>
@@ -9422,10 +9422,10 @@
         <v>131.4700012207031</v>
       </c>
       <c r="K117">
-        <v>3.449422359466553</v>
+        <v>3.449422121047974</v>
       </c>
       <c r="L117">
-        <v>155.6662750244141</v>
+        <v>155.6662902832031</v>
       </c>
       <c r="M117">
         <v>482.9505310058594</v>
@@ -9472,7 +9472,7 @@
         <v>44977</v>
       </c>
       <c r="B118">
-        <v>137.861572265625</v>
+        <v>137.8615570068359</v>
       </c>
       <c r="C118">
         <v>12.16377639770508</v>
@@ -9502,10 +9502,10 @@
         <v>3.488509178161621</v>
       </c>
       <c r="L118">
-        <v>152.4652099609375</v>
+        <v>152.4652404785156</v>
       </c>
       <c r="M118">
-        <v>488.3873596191406</v>
+        <v>488.3873901367188</v>
       </c>
       <c r="N118">
         <v>4456.25146484375</v>
@@ -9535,13 +9535,13 @@
         <v>30.20689582824707</v>
       </c>
       <c r="W118">
-        <v>102.8348007202148</v>
+        <v>102.8347930908203</v>
       </c>
       <c r="X118">
         <v>14.18000030517578</v>
       </c>
       <c r="Y118">
-        <v>17.99576187133789</v>
+        <v>17.99576377868652</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -9558,13 +9558,13 @@
         <v>6.327407836914062</v>
       </c>
       <c r="E119">
-        <v>211.6944274902344</v>
+        <v>211.6944122314453</v>
       </c>
       <c r="F119">
         <v>293.5696411132812</v>
       </c>
       <c r="G119">
-        <v>138.3229522705078</v>
+        <v>138.3229370117188</v>
       </c>
       <c r="H119">
         <v>1727.313720703125</v>
@@ -9576,13 +9576,13 @@
         <v>125.5400009155273</v>
       </c>
       <c r="K119">
-        <v>3.332161426544189</v>
+        <v>3.332161664962769</v>
       </c>
       <c r="L119">
         <v>150.5590515136719</v>
       </c>
       <c r="M119">
-        <v>494.3140563964844</v>
+        <v>494.3140869140625</v>
       </c>
       <c r="N119">
         <v>4403.513671875</v>
@@ -9591,7 +9591,7 @@
         <v>65.27999877929688</v>
       </c>
       <c r="P119">
-        <v>109.9249954223633</v>
+        <v>109.9249877929688</v>
       </c>
       <c r="Q119">
         <v>203.9499969482422</v>
@@ -9612,7 +9612,7 @@
         <v>31.30009841918945</v>
       </c>
       <c r="W119">
-        <v>106.8049545288086</v>
+        <v>106.8049621582031</v>
       </c>
       <c r="X119">
         <v>13.84000015258789</v>
@@ -9635,7 +9635,7 @@
         <v>6.308825016021729</v>
       </c>
       <c r="E120">
-        <v>207.4954071044922</v>
+        <v>207.4954223632812</v>
       </c>
       <c r="F120">
         <v>286.8363952636719</v>
@@ -9689,7 +9689,7 @@
         <v>30.94528770446777</v>
       </c>
       <c r="W120">
-        <v>99.48027801513672</v>
+        <v>99.48028564453125</v>
       </c>
       <c r="X120">
         <v>12.35000038146973</v>
@@ -9703,7 +9703,7 @@
         <v>44998</v>
       </c>
       <c r="B121">
-        <v>123.0707702636719</v>
+        <v>123.0707626342773</v>
       </c>
       <c r="C121">
         <v>9.97681999206543</v>
@@ -9712,7 +9712,7 @@
         <v>6.048667430877686</v>
       </c>
       <c r="E121">
-        <v>183.6272430419922</v>
+        <v>183.6272583007812</v>
       </c>
       <c r="F121">
         <v>271.0132446289062</v>
@@ -9736,7 +9736,7 @@
         <v>148.9559020996094</v>
       </c>
       <c r="M121">
-        <v>478.8361206054688</v>
+        <v>478.8361511230469</v>
       </c>
       <c r="N121">
         <v>4401.7275390625</v>
@@ -9751,7 +9751,7 @@
         <v>190.2200012207031</v>
       </c>
       <c r="R121">
-        <v>184.5111846923828</v>
+        <v>184.5111694335938</v>
       </c>
       <c r="S121">
         <v>12.36999988555908</v>
@@ -9795,7 +9795,7 @@
         <v>263.3662109375</v>
       </c>
       <c r="G122">
-        <v>143.9853973388672</v>
+        <v>143.9854125976562</v>
       </c>
       <c r="H122">
         <v>1778.570678710938</v>
@@ -9857,7 +9857,7 @@
         <v>45012</v>
       </c>
       <c r="B123">
-        <v>127.4728012084961</v>
+        <v>127.4727783203125</v>
       </c>
       <c r="C123">
         <v>10.28547763824463</v>
@@ -9899,7 +9899,7 @@
         <v>61.68000030517578</v>
       </c>
       <c r="P123">
-        <v>106.8555526733398</v>
+        <v>106.8555450439453</v>
       </c>
       <c r="Q123">
         <v>199</v>
@@ -9934,7 +9934,7 @@
         <v>45019</v>
       </c>
       <c r="B124">
-        <v>124.6946258544922</v>
+        <v>124.6946334838867</v>
       </c>
       <c r="C124">
         <v>10.7484655380249</v>
@@ -10026,7 +10026,7 @@
         <v>280.1512451171875</v>
       </c>
       <c r="G125">
-        <v>148.1856384277344</v>
+        <v>148.1856231689453</v>
       </c>
       <c r="H125">
         <v>1965.683959960938</v>
@@ -10053,13 +10053,13 @@
         <v>68.5</v>
       </c>
       <c r="P125">
-        <v>113.0821304321289</v>
+        <v>113.0821380615234</v>
       </c>
       <c r="Q125">
         <v>194.6399993896484</v>
       </c>
       <c r="R125">
-        <v>194.3222351074219</v>
+        <v>194.3222198486328</v>
       </c>
       <c r="S125">
         <v>14.05000019073486</v>
@@ -10103,7 +10103,7 @@
         <v>284.0469055175781</v>
       </c>
       <c r="G126">
-        <v>153.1611328125</v>
+        <v>153.1611480712891</v>
       </c>
       <c r="H126">
         <v>1994.049560546875</v>
@@ -10118,7 +10118,7 @@
         <v>3.802229404449463</v>
       </c>
       <c r="L126">
-        <v>159.0342407226562</v>
+        <v>159.0342254638672</v>
       </c>
       <c r="M126">
         <v>579.3602294921875</v>
@@ -10165,7 +10165,7 @@
         <v>45040</v>
       </c>
       <c r="B127">
-        <v>136.2914276123047</v>
+        <v>136.2914428710938</v>
       </c>
       <c r="C127">
         <v>10.5395565032959</v>
@@ -10180,7 +10180,7 @@
         <v>305.3528442382812</v>
       </c>
       <c r="G127">
-        <v>154.4261779785156</v>
+        <v>154.4261932373047</v>
       </c>
       <c r="H127">
         <v>1957.522705078125</v>
@@ -10251,7 +10251,7 @@
         <v>5.407564163208008</v>
       </c>
       <c r="E128">
-        <v>185.7569885253906</v>
+        <v>185.7570037841797</v>
       </c>
       <c r="F128">
         <v>306.410888671875</v>
@@ -10284,13 +10284,13 @@
         <v>73.73999786376953</v>
       </c>
       <c r="P128">
-        <v>105.9006118774414</v>
+        <v>105.9006195068359</v>
       </c>
       <c r="Q128">
         <v>189.3800048828125</v>
       </c>
       <c r="R128">
-        <v>177.5485076904297</v>
+        <v>177.5485229492188</v>
       </c>
       <c r="S128">
         <v>11.28999996185303</v>
@@ -10305,7 +10305,7 @@
         <v>37.52999877929688</v>
       </c>
       <c r="W128">
-        <v>98.69407653808594</v>
+        <v>98.69406890869141</v>
       </c>
       <c r="X128">
         <v>9.289999961853027</v>
@@ -10328,13 +10328,13 @@
         <v>5.296067714691162</v>
       </c>
       <c r="E129">
-        <v>189.8382415771484</v>
+        <v>189.8382110595703</v>
       </c>
       <c r="F129">
         <v>285.68212890625</v>
       </c>
       <c r="G129">
-        <v>154.0114288330078</v>
+        <v>154.0114440917969</v>
       </c>
       <c r="H129">
         <v>1975.400024414062</v>
@@ -10349,7 +10349,7 @@
         <v>3.792327642440796</v>
       </c>
       <c r="L129">
-        <v>157.1671447753906</v>
+        <v>157.1671295166016</v>
       </c>
       <c r="M129">
         <v>585.033447265625</v>
@@ -10361,7 +10361,7 @@
         <v>79.01000213623047</v>
       </c>
       <c r="P129">
-        <v>103.0747833251953</v>
+        <v>103.0747756958008</v>
       </c>
       <c r="Q129">
         <v>204.75</v>
@@ -10396,7 +10396,7 @@
         <v>45061</v>
       </c>
       <c r="B130">
-        <v>137.2181701660156</v>
+        <v>137.2181549072266</v>
       </c>
       <c r="C130">
         <v>11.70721244812012</v>
@@ -10438,13 +10438,13 @@
         <v>75.70999908447266</v>
       </c>
       <c r="P130">
-        <v>103.5425033569336</v>
+        <v>103.5425109863281</v>
       </c>
       <c r="Q130">
         <v>207.6499938964844</v>
       </c>
       <c r="R130">
-        <v>72.73520660400391</v>
+        <v>72.73521423339844</v>
       </c>
       <c r="S130">
         <v>9.569999694824219</v>
@@ -10669,7 +10669,7 @@
         <v>73.73999786376953</v>
       </c>
       <c r="P133">
-        <v>105.551643371582</v>
+        <v>105.5516357421875</v>
       </c>
       <c r="Q133">
         <v>198.6600036621094</v>
@@ -10690,7 +10690,7 @@
         <v>36</v>
       </c>
       <c r="W133">
-        <v>98.75349426269531</v>
+        <v>98.75350189208984</v>
       </c>
       <c r="X133">
         <v>9.170000076293945</v>
@@ -10713,7 +10713,7 @@
         <v>5.298850536346436</v>
       </c>
       <c r="E134">
-        <v>189.7289123535156</v>
+        <v>189.7289276123047</v>
       </c>
       <c r="F134">
         <v>292.1748962402344</v>
@@ -10767,7 +10767,7 @@
         <v>38.22999954223633</v>
       </c>
       <c r="W134">
-        <v>103.3297500610352</v>
+        <v>103.3297576904297</v>
       </c>
       <c r="X134">
         <v>10.56999969482422</v>
@@ -10790,7 +10790,7 @@
         <v>5.164215564727783</v>
       </c>
       <c r="E135">
-        <v>185.9152679443359</v>
+        <v>185.915283203125</v>
       </c>
       <c r="F135">
         <v>296.3999938964844</v>
@@ -10867,7 +10867,7 @@
         <v>5.279616832733154</v>
       </c>
       <c r="E136">
-        <v>186.9163665771484</v>
+        <v>186.9163513183594</v>
       </c>
       <c r="F136">
         <v>301.8500061035156</v>
@@ -10900,7 +10900,7 @@
         <v>71.86000061035156</v>
       </c>
       <c r="P136">
-        <v>105.4140319824219</v>
+        <v>105.4140396118164</v>
       </c>
       <c r="Q136">
         <v>181.4600067138672</v>
@@ -10965,7 +10965,7 @@
         <v>2.960590124130249</v>
       </c>
       <c r="L137">
-        <v>156.8460693359375</v>
+        <v>156.8460540771484</v>
       </c>
       <c r="M137">
         <v>534.4725341796875</v>
@@ -10977,7 +10977,7 @@
         <v>72.69999694824219</v>
       </c>
       <c r="P137">
-        <v>101.3940582275391</v>
+        <v>101.3940505981445</v>
       </c>
       <c r="Q137">
         <v>176.8999938964844</v>
@@ -10998,7 +10998,7 @@
         <v>35.70000076293945</v>
       </c>
       <c r="W137">
-        <v>109.3117904663086</v>
+        <v>109.3117980957031</v>
       </c>
       <c r="X137">
         <v>10.60999965667725</v>
@@ -11027,7 +11027,7 @@
         <v>326.6000061035156</v>
       </c>
       <c r="G138">
-        <v>148.1752624511719</v>
+        <v>148.1752777099609</v>
       </c>
       <c r="H138">
         <v>1996.199951171875</v>
@@ -11075,7 +11075,7 @@
         <v>35.65000152587891</v>
       </c>
       <c r="W138">
-        <v>111.5949325561523</v>
+        <v>111.5949401855469</v>
       </c>
       <c r="X138">
         <v>12.14000034332275</v>
@@ -11104,7 +11104,7 @@
         <v>338.1499938964844</v>
       </c>
       <c r="G139">
-        <v>151.019287109375</v>
+        <v>151.0192718505859</v>
       </c>
       <c r="H139">
         <v>1915</v>
@@ -11131,7 +11131,7 @@
         <v>75.13999938964844</v>
       </c>
       <c r="P139">
-        <v>102.1115570068359</v>
+        <v>102.1115493774414</v>
       </c>
       <c r="Q139">
         <v>187.3399963378906</v>
@@ -11152,7 +11152,7 @@
         <v>34.38999938964844</v>
       </c>
       <c r="W139">
-        <v>112.5520629882812</v>
+        <v>112.5520706176758</v>
       </c>
       <c r="X139">
         <v>12.39000034332275</v>
@@ -11175,7 +11175,7 @@
         <v>5.798923969268799</v>
       </c>
       <c r="E140">
-        <v>184.5328369140625</v>
+        <v>184.5328216552734</v>
       </c>
       <c r="F140">
         <v>343.25</v>
@@ -11196,7 +11196,7 @@
         <v>3.188327789306641</v>
       </c>
       <c r="L140">
-        <v>171.8461456298828</v>
+        <v>171.8461608886719</v>
       </c>
       <c r="M140">
         <v>525.9130249023438</v>
@@ -11229,7 +11229,7 @@
         <v>31.78000068664551</v>
       </c>
       <c r="W140">
-        <v>118.2250366210938</v>
+        <v>118.2250289916992</v>
       </c>
       <c r="X140">
         <v>11.85999965667725</v>
@@ -11252,7 +11252,7 @@
         <v>5.721989154815674</v>
       </c>
       <c r="E141">
-        <v>184.9618682861328</v>
+        <v>184.9618530273438</v>
       </c>
       <c r="F141">
         <v>328.75</v>
@@ -11273,7 +11273,7 @@
         <v>3.257639169692993</v>
       </c>
       <c r="L141">
-        <v>166.48828125</v>
+        <v>166.4882659912109</v>
       </c>
       <c r="M141">
         <v>528.3016967773438</v>
@@ -11285,7 +11285,7 @@
         <v>73.66000366210938</v>
       </c>
       <c r="P141">
-        <v>105.5811233520508</v>
+        <v>105.5811157226562</v>
       </c>
       <c r="Q141">
         <v>179.8600006103516</v>
@@ -11306,7 +11306,7 @@
         <v>31.63999938964844</v>
       </c>
       <c r="W141">
-        <v>114.3566436767578</v>
+        <v>114.3566513061523</v>
       </c>
       <c r="X141">
         <v>11.5600004196167</v>
@@ -11427,7 +11427,7 @@
         <v>3.158622980117798</v>
       </c>
       <c r="L143">
-        <v>169.8861999511719</v>
+        <v>169.8862152099609</v>
       </c>
       <c r="M143">
         <v>622.655517578125</v>
